--- a/calculated_KPIs_critical_alerts.xlsx
+++ b/calculated_KPIs_critical_alerts.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>forecast_time</t>
+  </si>
+  <si>
+    <t>forecast_value</t>
+  </si>
+  <si>
+    <t>forecast_lower</t>
+  </si>
+  <si>
+    <t>forecast_upper</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>pod_tbs</t>
+  </si>
+  <si>
+    <t>iVBORw0KGgoAAAANSUhEUgAABLAAAAJYCAYAAABy5h8aAAAAOXRFWHRTb2Z0d2FyZQBNYXRwbG90bGliIHZlcnNpb24zLjkuNCwgaHR0cHM6Ly9tYXRwbG90bGliLm9yZy8ekN5oAAAACXBIWXMAAA9hAAAPYQGoP6dpAACA5UlEQVR4nOzdd3xTdfv/8fdp0sVokbIpe1tkD0W2imxvGaK3bPwiLvSnt3rjYijguhXF24mCA1TABQrKEBSRIVoQBKy3DIECUkbL6Epyfn/UhIYmHdAmJ/h6Ph48lCsnOdeVMz7JxeecGKZpmgIAAAAAAAAsKizYCQAAAAAAAAD5oYEFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAgIXUrl1bhmF4/YmMjFTNmjU1ZMgQrVmzJiB5jBw5UoZhaM6cOQFZX0lxv5979uwJdioXPff+CgAAUBJoYAEAYEFXXnmlRowYoREjRqhXr15yuVyaP3++unTpoueeey7Y6VlCKDXZAtlImzNnjgzD0MiRI0t8XQAAAIFiD3YCAAAgr1tuucWrAZGRkaFbb71V77zzjh544AH17dtXDRs2DF6CIWLlypXKzs5W9erVg50KAAAALgAzsAAACAFRUVH673//q9KlS8vpdOrjjz8OdkohoV69emrcuLHCw8ODnQoAAAAuAA0sAABCRJkyZdSoUSNJynMp2ldffaW+ffuqUqVKioiIULVq1TRkyBBt2rTJ7+sdO3ZM99xzj2rVquW5z9add96pY8eOnVd+kyZNkmEYmjRpkvbu3avhw4eratWqioqKUsOGDTVp0iSlp6fneV52drbee+893XzzzWrcuLFiYmIUHR2tRo0aafz48UpOTvZafs+ePTIMQ2+//bYkadSoUV73DJs0aZJn2YIu3Vu4cKF69uypihUrKiIiQtWrV9fQoUO1ffv2PMu611u7dm2ZpqnXX39drVu3VunSpRUbG6sePXpo3bp1Xs9xX863d+9eSVKdOnW8cl29erVn2RUrVqhfv36qXLmywsPDdckll6hBgwYaOnSovv3228JsAtWuXVujRo2SJL399tte6+ratavXsmfOnNGTTz6pVq1aqWzZsipVqpQSEhL0yCOP6Pjx44Vanz9vvPGG570pV66cevfurfXr1/td3uFwaNasWeratavKly+vyMhI1alTR7fddpv27dtX5PX/+OOPGjJkiOLj4xUREaGYmBjVrVtXAwcO1Geffeb3OTfffLNq1qypyMhIlS9fXtdee62WLFlSbHmvXr3asy2ys7P11FNPKSEhQdHR0YqLi9OAAQO0Y8eOItcLAMDfAZcQAgAQQtLS0iRJkZGRntijjz6qJ554QoZhqEOHDqpZs6Z27Nih+fPn66OPPtLrr7+u0aNHe73O4cOH1alTJ/3222+65JJL1LdvX7lcLs2dO1dffvmlEhISzjvH3bt3q3Xr1rLb7ercubPS09O1atUqTZ48WStWrNCKFSsUFRXllcuwYcMUGxurJk2aqFmzZjp9+rQ2b96smTNn6oMPPtD333+v+vXrS8pp5I0YMULfffedfv/9d1155ZWexySpRYsWBebocDh08803a/78+YqMjFTr1q1VvXp1JSUlae7cufr444/18ccfq2fPnj6fP2rUKM2bN0+dOnVS3759tXnzZi1fvlzffvutvvnmG7Vv316SVL9+fY0YMUILFy7U6dOnNXDgQJUpU8bzOlWqVJGU02xyN57atWunbt26KT09Xfv379cHH3ygChUqqHPnzgXWNWjQIK1fv15r165VvXr11LFjR89jjRs39vz/sWPHdNVVV2nz5s2KiYlR9+7dFR4erm+++UZTp07VvHnz9PXXX6t27doFrvNc9957r2bMmKErr7xS1113nbZu3aqlS5dq+fLlmj9/vq6//nqv5U+ePKn+/ftr9erVKlOmjFq3bq2KFStq69atevXVV7VgwQItX75cLVu2LNT6V65cqV69eik7O1vNmzfXFVdcIafTqQMHDuiLL76Q0+nUdddd5/WcF154Qffee69cLpdatGih9u3b69ChQ1q9erWWLVumyZMn67HHHiu2vLOzs9W7d299//336ty5s5o0aaKNGzfqk08+0apVq5SYmHhe7z0AABc1EwAAWEatWrVMSebs2bPzPLZlyxYzLCzMlGS+9dZbpmma5tKlS01JZlRUlLls2TKv5WfNmmVKMsPDw81t27Z5PTZo0CBTktmpUyfzxIkTnvjRo0fN9u3bm5L85uHPxIkTPc+77rrrzDNnznge27dvn9mwYUNTkvnvf//b63lpaWnmZ599ZmZmZnrFs7KyzAkTJpiSzN69e+dZ34gRIwrM0f1+7t692yv+0EMPmZLM9u3bm7t27fJ6bMGCBabNZjMvueQS8/jx45747t27PfXVqlXL/PXXXz2PORwOc/To0aYks0ePHoXOw61OnTqmJHPNmjV5Hjt8+LD5008/+a3xXLNnzzYlmSNGjPC7zJAhQzz1p6SkeOInT540e/XqZUoyO3ToUOh1mqbpeW+io6PNlStXej329NNPm5LM2NhY8/Dhw16P/fOf/zQlmX379s3z2PPPP29KMhs0aGA6HI5C5dGtWzdTkvnee+/leezEiRPmunXrvGJffvmlaRiGWaFCBfObb77xeuznn3824+PjTUnm6tWrLzjvVatWed6nli1bmgcPHvQ8lp6ebl577bWmJHPs2LGFqhUAgL8TGlgAAFiIrwbWiRMnzC+++MKsV6+eKcmsVq2aeerUKdM0TfOqq64yJZn33nuvz9fr27evKcn8v//7P0/sjz/+MMPCwkzDMMxffvklz3MSExMvqIEVHR3t9cXcbfHixaYkMyYmxkxPTy/061arVs0MCwsz09LSvOLn28A6evSoGR0dbUZFRZn79+/3+bzbb7/dlGTOnDnTE8vdwFq0aFGe5xw8eNCUZEZGRppZWVkF5pFbqVKlzNjYWL91FEVBDay9e/d6tv+WLVvyPL5//34zKirKlGSuXbu20Ot1vzf33HOPz8fbtGljSjKnTp3qiW3fvt00DMOsVq1anu3r1rt3b1OSuXjx4kLlcemll5qSzGPHjhVqeXfDduHChT4fnz9/vinJHDhw4AXn7W5gGYZhbt68Oc9z1q9fb0oy69atW6jcAQD4O+EeWAAAWFDu+zqVK1dOffr00e+//6569eppyZIlKl26tBwOh9auXStJXr9YmNuYMWMkSatWrfLEvv32W7lcLrVq1UqXXnppnue0aNFCzZo1O+/ce/To4bk0Lre+ffsqLi5OaWlp+umnn/I8vmXLFj333HO66667NHr0aI0cOVIjR46Uw+GQy+XS//73v/POKbdVq1YpPT1dV155pd9fJ3TfL+r777/P85jdbvd5aWGVKlV0ySWXKDMzU0ePHi1STu3atVNqaqqGDx+uH3/8US6Xq0jPLwr39m/ZsqXP7Vy9enVde+21krz3m8IaMWKEz/jw4cMlyeu+X0uWLJFpmurVq5fKli3r83n5bQtf2rVrJ0m6+eab9d1338nhcPhdNiUlRRs3blR0dLT69etX6PVfaN41a9ZU8+bN88SbNGkiSTpw4IDfnAEA+LviHlgAAFhQ7vs6RUREqFKlSrr88svVs2dP2e05w/fRo0eVkZEhKefm4L7Uq1dPkvcX4v379+f7HPdjP//883nlnt/r1q5dW0ePHvXkIEmnT5/WsGHD9Mknn+T7uu77f12oXbt2Scq5V5JhGPkue+TIkTyxqlWr+v1Vw5iYGB0/ftyzXQrr5ZdfVt++ffXuu+/q3XffVdmyZdW2bVt1795dw4YNU82aNYv0evlx7wv5bSdf+01h+Xtddzz3tndvizfffFNvvvlmvq/ra1v4Mn36dP38889aunSpli5dqujoaLVq1Updu3bVzTff7GkSSTn3azNNU+np6V73lSto/Reat7/tGRMTI0nKzMzM9zUBAPg7ooEFAIAF3XLLLX5nVV0MTNP0/P+ECRP0ySefqHHjxnryySfVtm1bVahQQREREZKkDh06aN26dV7PuRDu2U3169fXlVdeme+yuW987hYWVvwT2Js0aaJff/1Vy5Yt09dff63vv/9ea9as0ddff60pU6bozTff1NChQ4t9vcGQezu6t0WLFi18zkjKzX1j/IJUqVJFmzZt0jfffKMVK1Zo7dq12rBhg9auXatp06Zp+vTpevDBB73WX6ZMGQ0cOLDQNVxo3iWxDwEAcLGjgQUAQIiKi4tTZGSkMjMztWvXLp+Xg7lniuS+VM79/3v27PH72vk9VpDdu3cX+Lrx8fGe2Pz58yVJH374oc8afvvtt/POxZcaNWpIkho1aqQ5c+YU62tfCLvdrt69e6t3796ScmacPffcc5o8ebJuvfVWXX/99SpduvQFr8e9/d37hi++9pvC2r17t89fgvS17d3b4sorr9RLL71U5HX5YxiGunbt6rmMLyMjQ3PmzNEdd9yhhx56SIMGDVK9evU86zcMQ2+99VahG0sllTcAAPCPf/4BACBE2e12dezYUZL8NmLeeustSVK3bt08sc6dO8swDP3000/auXNnnuds2bLlvC8flKRly5bpzz//zBNfsmSJjh49qrJly6p169ae+LFjxyRJtWrVyvOcr776SikpKT7X456hld89jny56qqrFBERodWrV/vMsyScT64xMTGaNGmSypUrpzNnzigpKalY1tW5c2eFhYVp8+bN2rJlS57HDx48qC+//FKS935TWO+++26+cXdTSZJ69eolSVq0aFGRL7ssiqioKI0bN07NmjWTy+Xy7N/VqlVTs2bNdPLkSU/NhRGovAEAwFk0sAAACGH33XefJOmVV17RypUrvR6bM2eOFi1apPDwcN19992eeM2aNXX99dfL5XLptttu87q31PHjx3X77bdf0OV66enpuu2225Senu6JJScne3IdN26coqKiPI+570k0c+ZMr9f59ddfNW7cOL/rcc/k+eWXX4qUX+XKlXXXXXfp9OnT6tevn7Zu3ZpnmczMTC1atMhng+985JfrmTNn9Nxzz/m8V9KaNWt04sQJ2Ww2r5lLhVnX9u3bfT5es2ZNDR48WKZp6tZbb/W64fzp06c1duxYZWRkqEOHDurQoUOh1pnbK6+84nWjdkl6/vnntXHjRpUtW9bzwwKS1LJlSw0cOFD79u3TgAEDfM78O336tObOnavDhw8Xav3PPvus/vjjjzzxnTt3embz5W6WPvHEE5Jyfjhh8eLFeZ5nmqY2bNigZcuWlWjeAAAgf1xCCABACOvVq5ceeeQRPfHEE7rmmmt05ZVXqmbNmtq5c6d++ukn2Ww2vfrqq0pISPB63n//+19t2bJFq1evVp06ddS1a1eZpqlVq1YpLi5O/fv316JFi84rp+HDh+vzzz9X3bp11alTJ2VkZOjrr7/W6dOndcUVV2jy5Mley0+cOFGDBg3So48+qvnz5yshIUF//vmn1qxZo06dOqlatWo+f8ntH//4hyZPnqwXX3xR27ZtU40aNRQWFqb+/furf//++eb45JNP6uDBg5o3b57nPkZ169aV3W7X/v37tXnzZp0+fVpLly71eR+soho4cKBWrVqloUOHqkePHrrkkkskSffff78qV66s++67T/fff78uu+wyNWjQQOHh4dqzZ4/Wr18vSXr44YdVsWLFQq3r8ssvV7Vq1ZSYmKhWrVrpsssuU3h4uBo1aqT7779fUs7237lzpzZs2KB69eqpW7dustvt+uabb3TkyBHVqVNHc+fOPa9ab731VnXv3l2dOnVS9erVtW3bNm3dulU2m01vvfVWnl+onD17tk6cOKGlS5eqUaNGat68uerUqSPTNLVnzx5t2bJFWVlZ2rFjhypXrlzg+p944gndf//9aty4sZo0aaLo6GglJyd7fpFw+PDhatWqlWf5fv366YUXXtB9992n/v37q379+mrUqJFiY2N15MgRbdmyRX/++acefPBB9ejRo8TyBgAABTABAIBl1KpVy5Rkzp49u0jPW7p0qdm7d28zLi7OtNvtZpUqVczBgwebGzZs8PuclJQU86677jLj4+PNiIgIMz4+3hw3bpx55MgRc8SIEUXOY+LEiaYkc+LEieauXbvMm266yaxcubIZERFh1q9f33zsscfM06dP+3zut99+a1511VVmhQoVzFKlSplNmzY1p06damZmZppdunQxJZmrVq3K87xPPvnEvPLKK82yZcuahmF41u/mfj93797tc71LliwxBwwYYFavXt0MDw83y5UrZzZp0sS88cYbzXnz5nnlu3v3blOSWatWLb/vgb/1OZ1Oc/r06WZCQoIZFRVlSvLUlJ2dbb766qvmTTfdZDZu3NiMjY01o6OjzXr16pkDBw40V65c6Xd9/mzdutXs37+/WbFiRTMsLMyUZHbp0sVrmdOnT5vTp083W7RoYZYqVcqMiooymzRpYj700EPmsWPHirxOd02maZqvvPKK2aJFCzM6OtqMiYkxe/bsaa5du9bvc51Opzlv3jyzd+/eZuXKlc3w8HAzLi7ObNq0qTlq1Cjzk08+MbOysgqVx3vvvWeOGjXKbNq0qVm+fHkzMjLSrFWrltmrVy/zk08+MV0ul8/nbd261Rw7dqzZoEEDMyoqyixVqpRZt25d89prrzVffPFF88CBAxec96pVq3xuC3/vIwAAOMswzWL6SR8AAPC3NmnSJE2ePFkTJ07UpEmTgp0OAAAALiLcAwsAAAAAAACWRgMLAAAAAAAAlkYDCwAAAAAAAJbGPbAAAAAAAABgaczAAgAAAAAAgKXRwAIAAAAAAICl2YOdwPlwuVxKTk5W2bJlZRhGsNMBAAAAAABAPkzT1MmTJ1WtWjWFhRV9PlVINrCSk5NVo0aNYKcBAAAAAACAIti3b5/i4+OL/LyQbGCVLVtWUk7RMTExQc4GAAAAAAAA+UlLS1ONGjU8PZ2iCskGlvuywZiYGBpYAAAAAAAAIeJ8bwXFTdwBAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGkh+SuEAAAAAAAg8EzTlNPplMPhCHYqsAi73S6bzXbevy5Y6PWU6KsDAAAAAICQZ5qmTpw4oSNHjsjpdAY7HViMzWZTpUqVFBsbW2KNLBpYAAAAAAAgX4cOHdKJEycUExOjmJgY2e32Ep9xA+szTVMOh0NpaWk6ePCg0tPTVbVq1RJZFw0sAAAAAADgl9PpVGpqqipWrKgKFSoEOx1YUNmyZRUZGamUlBRVqlRJNput2NfBTdwBAAAAAIBf2dnZMk1TpUuXDnYqsLDSpUvLNE1lZ2eXyOvTwAIAAAAAAAXikkHkp6T3DxpYAAAAAAAAsDQaWAAAAAAAAPBp5MiRql27drDToIEFAAAAAAD+vubMmSPDMPz+Wb9+fbBTLND27ds1adIk7dmzJ9iplBh+hRAAAAAAAPztTZkyRXXq1MkTr1+/fhCyKZrt27dr8uTJ6tq1qyVmS5WEYmlgnTp1Ss8884w2bNigjRs36vjx45o9e7ZGjhzpWcblcumdd97Rxx9/rMTERB07dkx16tTRjTfeqH/961+KiooqjlQAAAAAAEAALdsW7AykHk0v/DV69eqlNm3aXPgLoUQUyyWEKSkpmjJlinbs2KHmzZv7XObMmTMaNWqUjhw5onHjxmnGjBlq166dJk6cqF69esk0zeJIBQAAAAAAoFhNnDhRYWFhWrlypVd87NixioiI0JYtWyRJq1evlmEY+vDDD/XQQw+pSpUqKl26tPr37699+/bled0NGzaoZ8+eio2NValSpdSlSxetXbs2z3IHDhzQmDFjVK1aNUVGRqpOnTq67bbblJWVpTlz5mjw4MGSpG7dunkufVy9erXn+UuXLlWnTp1UunRplS1bVn369NEvv/ySZz2ffvqpmjZtqqioKDVt2lSffPLJhbxtxapYZmBVrVpVBw8eVJUqVbRp0ya1bds2zzIRERFau3atOnTo4In93//9n2rXrq2JEydq5cqVuvrqq4sjHQAAAAAAgCJJTU1VSkqKV8wwDMXFxemRRx7R4sWLNWbMGG3dulVly5bVV199pTfeeEOPP/54nsk8U6dOlWEYevDBB/Xnn39qxowZuvrqq7V582ZFR0dLkr7++mv16tVLrVu39jTIZs+ere7du2vNmjVq166dJCk5OVnt2rXTiRMnNHbsWDVu3FgHDhzQwoULdebMGXXu3Fnjx4/Xiy++qIceekhNmjSRJM9/3333XY0YMULXXnutnnrqKZ05c0avvPKKOnbsqMTERM8lh8uWLdPAgQN16aWXavr06Tp69KhGjRql+Pj4knzbC61YGliRkZGqUqVKvstERER4Na/crr/+ek2cOFE7duyggQUAAAAAAILCV08iMjJSGRkZCg8P1zvvvKPWrVvr3nvv1TPPPKMxY8aoTZs2+ve//53neceOHdOOHTtUtmxZSVKrVq10ww036I033tD48eNlmqbGjRunbt26aenSpTIMQ5J06623KiEhQY888oiWLVsmSZowYYIOHTqkDRs2eF3iOGXKFJmmqXLlyqlTp0568cUXdc0116hr166eZU6dOqXx48frlltu0euvv+6JjxgxQo0aNdK0adM88QcffFCVK1fWd999p9jYWElSly5d1KNHD9WqVesC390LF/SbuB86dEiSVKFChSBnAgAAAAAA/q7++9//qmHDhl4xm83m+f+mTZtq8uTJmjBhgn7++WelpKRo2bJlstvztlaGDx/uaV5J0qBBg1S1alUtWbJE48eP1+bNm/Xbb7/pkUce0dGjR72ee9VVV+ndd9+Vy+WSlHNZX79+/Xzen8vd+PJn+fLlOnHihG666Sav2WU2m03t27fXqlWrJEkHDx7U5s2b9e9//9vTvJKka665RpdeeqlOnz6d73oCIegNrKeffloxMTHq1auX32UyMzOVmZnp+XtaWpokyeFwyOFwSJLCwsIUFhYml8vl2ci5406n0+s+W/7iNptNhmF4Xjd3XJKcTmeh4na7XaZpesUNw5DNZsuTo784NVETNVETNVETNVETNVETNVETNVFTsGtyOBye1/N9/2pDUnDj53tbbcMwPDW1bdvW0yTKHc9d8/33368PPvhAGzdu1NSpU9WkSROZpulZ3r1s/fr1veLu2J49e2Sapn777TdJOTOh/Dlx4oSysrKUlpamhISEfO8dfm6u7v8mJSVJkrp37+7zeTExMZKkPXv2eOWd+z1o1KiRfvrppzxxf3nk7tXk3vfO3f+KKqgNrGnTpmnFihV6+eWXVa5cOb/LTZ8+XZMnT84TT0xMVOnSpSVJFStWVL169bR7924dOXLEs0x8fLzi4+OVlJSk1NRUT7xu3bqqVKmStm3bpvT0dE+8cePGKleunBITE70O4mbNmikiIkKbNm3yyqFNmzbKysrSzz//7InZbDa1bdtWqamp2rlzpyceHR2t5s2bKyUlRbt27fLEY2Nj1eSHH5QcHq794eGeeEWHQ/WysrQ7IkJHcnV047OzFZ+draTISKXm6gbXzcpSJYdD26KilB529v78jTMyVM7lUmJ0tJy5urPN0tMVYZraVKqUd03/+Efx1NSkiZKTk7V///6zNYX6dqImaqImaqImaqImaqImaqImavob1hQVFSUpp6mVkZHhiYeFhUkqJafT6dWgCAsLU3h4RJ64zWaT3R4uh8PhlYvdbpfNZld2drZXs84dz8rK8mqahIeHKyzM5omfPu3wvMdhYWF5ZgyVLl1aLpfL630xDMMTl6T09HSdPn1aYWFhKlWqlBwOh9dkGpvNpv3793uaT5s3b9bp06dlt9sVFRWlzMxMz3uTmZmp7OxsRUREKCMjQ06nU06nUy6XSw6Hw7POJ554Qs2aNZOUc+slm82mjIwMT/PrzJkznvXnV5M7T/f63dvJ/fdZs2apVq1acjgcys7O9rxGRESEJHm2UWZmZp6a3A3M06dPKyIiwqsmt8jISElSdna2tm07+7OUufc992Sk82WYxfzzf+6buM+ePVsjR470u9yHH36om266SaNHj9asWbPyfU1fM7Bq1Kiho0ePerqFVulMuxW52z53rlySXLleI+yvP/7iTnn3oP3FbcrpS5/b63S3vpznxocNK56aLPwvCNRETdRETdRETdRETdRETdRETdRUuJoyMjL0xx9/qG7dup5GRW7Lfwn+DKxrEnw8XAiGYWj27NkaPXq0Nm7c6HMGlpvL5VLnzp21a9cujRo1StOnT9fChQs1YMAAz/KrV69W9+7d9e9//1vTpk3zmpkVHx+vZs2aaenSpdq0aZPatWunV199VWPHjvXKJ/d6XS6Xypcvr27duuX7i4AfffSRBg8erK+//lrdunXzvMaCBQs0ZMgQffnll7r22mt9zpwyDEPJycmqXr26HnzwQU2fPt0rl6ZNm+r06dPavXu33/dGyund7Nq1SzVr1vQ0PHPve2lpaYqLi1Nqaqqnl1MUQZmBtXz5cg0fPlx9+vTRq6++WuDykZGRPg8Su92e51pT9wF7LvcBWNi4r2tYixo3DMNn3F+O7gZUYeO+M/cf97ex88T/mqVVLDUVMR4S24maqMlPjkWNUxM1SdTkL8eixqmJmiRq8pdjUePURE0SNfnLsajxi6Umu90u46/vie7/5hXcuN+0CiF3bbnrO7fW559/Xt9//70WLVqkPn366JtvvtHtt9+uLl26qEKFCl7Pf/fdd/XQQw+pbNmyMgxDCxcu1MGDB/Xggw/KMAy1bt1a9erV03/+8x/dfPPNKlOmjNd6jxw5oooVK8pms+kf//iH3nvvPf3444957oPlnqnlfr57Rp47j549eyomJkbTp09X9+7dFZ7rqi9JnvVUq1ZNLVq00DvvvKMJEyZ47oO1YsUKbd++XbVq1cr3vckd99Wr8RUrqoA3sDZs2KDrr79ebdq00fz58y+4AAAAAAAAgAu1dOlSr0s+3Tp06KDMzEw9+uijGjlypPr16ydJmjNnjlq0aKHbb79d8+fP93pO+fLl1bFjR40aNUqHDx/WjBkzVL9+ff3f//2fpJym5KxZs9SrVy8lJCRo1KhRql69ug4cOKBVq1YpJiZGixcvlpRz+6Vly5apS5cuGjt2rJo0aaKDBw9qwYIF+u6771SuXDm1aNFCNptNTz31lFJTUxUZGanu3burUqVKeuWVVzRs2DC1atVKN954oypWrKg//vhDX3zxha688kq99NJLknJu39SnTx917NhRo0eP1rFjxzRz5kwlJCTo1KlTJfnWF0pAu0c7duxQnz59VLt2bX3++eeKjo4O5OoBAAAAAAB8euyxx3zGZ82apddee00VKlTQjBkzPPEGDRpo+vTpuvvuuzV//nzdcMMNnsceeugh/fzzz5o+fbpOnjypq666Si+//LJK5boHddeuXbVu3To9/vjjeumll3Tq1ClVqVJF7du316233upZrnr16tqwYYMeffRRzZ07V2lpaapevbp69erleb0qVaro1Vdf1fTp0zVmzBg5nU6tWrVKlSpV0j//+U9Vq1ZNTz75pJ555hllZmaqevXq6tSpk0aNGuVZT8+ePbVgwQI98sgjmjBhgurVq6fZs2frs88+0+rVq4vpXT5/xXYPrJdeekknTpxQcnKyXnnlFQ0YMEAtW7aUJN11110KCwtTQkKCDhw4oGnTpql69epez69Xr56uuOKKQq0rLS1NsbGx533dpCW9806wMzhr+PBgZwAAAAAAsIiMjAzt3r1bderU8dzbCL6tXr1a3bp104IFCzRo0KBgpxNQBe0nF9rLKbYZWM8++6z27t3r+fvHH3+sjz/+WJI0dOhQSdK+ffskSf/+97/zPH/EiBGFbmABAAAAAADg76PYGlh79uwpcJli/sFDAAAAAAAA/A34+nE7AAAAAAAAwDL4CUAAAAAAAIBi0LVrV64+KyHMwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAH9bc+bMkWEYioqK0oEDB/I83rVrVzVt2jQImSE3e7ATAAAAAAAAIezLL4OdgdSz5wW/RGZmpp588knNnDmzGBJCcWMGFgAAAAAA+Ntr0aKF3njjDSUnJwc7FfhAAwsAAAAAAPztPfTQQ3I6nXryySfzXc7hcOjxxx9XvXr1FBkZqdq1a+uhhx5SZmamZ5l7771XcXFxMk3TE7vrrrtkGIZefPFFT+zw4cMyDEOvvPJK8Rd0kaGBBQAAAAAA/vbq1Kmj4cOHFzgL65ZbbtFjjz2mVq1a6fnnn1eXLl00ffp03XjjjZ5lOnXqpGPHjumXX37xxNasWaOwsDCtWbPGKyZJnTt3LoGKLi40sAAAAAAAACQ9/PDDcjgceuqpp3w+vmXLFr399tu65ZZbtGDBAt1+++16++239a9//UuffvqpVq1aJUnq2LGjpLMNqtTUVG3dulUDBw7M08AqX768Lr300hKuLPTRwAIAAAAAAJBUt25dDRs2TK+//roOHjyY5/ElS5ZIyrlEMLf77rtPkvTFF19IkipWrKjGjRvr22+/lSStXbtWNptN999/vw4fPqzffvtNUk4Dq2PHjjIMo8RquljQwAIAAAAAAPjLI488IofD4fNeWHv37lVYWJjq16/vFa9SpYrKlSunvXv3emKdOnXyzLZas2aN2rRpozZt2qh8+fJas2aN0tLStGXLFnXq1KlkC7pI0MACAAAAAAD4S926dTV06FC/s7AkFWrGVMeOHXXgwAHt2rVLa9asUadOnWQYhjp27Kg1a9bo+++/l8vlooFVSDSwAAAAAAAAcnHPwjr3Xli1atWSy+XyXALodvjwYZ04cUK1atXyxNyNqeXLl+uHH37w/L1z585as2aN1qxZo9KlS6t169YlXM3FgQYWAAAAAABALvXq1dPQoUP12muv6dChQ5547969JUkzZszwWv65556TJPXp08cTq1OnjqpXr67nn39e2dnZuvLKKyXlNLZ+//13LVy4UJdffrnsdnsJV3NxoIEFAAAAAABwjocffljZ2dn69ddfPbHmzZtrxIgRev311zVkyBC9/PLLGjlypJ5++mn94x//ULdu3bxeo1OnTvr111/VtGlTXXLJJZKkVq1aqXTp0kpKSuLywSKggQUAAAAAAHCO+vXra+jQoXnis2bN0uTJk/XDDz/onnvu0ddff60JEybogw8+yLOsu0HVsWNHT8xut+uKK67wehwFM0zTNIOdRFGlpaUpNjZWqampiomJCXY6xeOdd4KdwVnDhwc7AwAAAACARWRkZGj37t2qU6eOoqKigp0OLKqg/eRCeznMwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAKCGGYWjSpEnBTiPk0cACAAAAAAB/S4ZhFOrP6tWrg53q35492AkAAAAAAIAQ9r//BTsDqX7983rau+++6/X3d955R8uXL88Tb9KkyXmnhuJBAwsAAAAAAPwtDR061Ovv69ev1/Lly/PEEXxcQggAAAAAAODH6dOndd9996lGjRqKjIxUo0aN9Oyzz8o0Ta/lMjMz9f/+3/9TxYoVVbZsWfXv31/79+/P83p79+7V7bffrkaNGik6OlpxcXEaPHiw9uzZ41lm165dMgxDzz//fJ7nf//99zIMQ++//36x12plNLAAAAAAAAB8ME1T/fv31/PPP6+ePXvqueeeU6NGjXT//ffr3nvv9Vr2lltu0YwZM9SjRw89+eSTCg8PV58+ffK85g8//KDvv/9eN954o1588UWNGzdOK1euVNeuXXXmzBlJUt26dXXllVdq7ty5eZ4/d+5clS1bVtddd13JFG1RXEIIAAAAAADgw6JFi/T111/riSee0MMPPyxJuuOOOzR48GC98MILuvPOO1WvXj1t2bJF7733nm6//Xb997//9Sx388036+eff/Z6zT59+mjQoEFesX79+umKK67QRx99pGHDhkmShg8frltvvVU7d+5U48aNJUnZ2dmaP3++BgwYoFKlSpV0+ZbCDCwAAAAAAAAflixZIpvNpvHjx3vF77vvPpmmqaVLl3qWk5RnuXvuuSfPa0ZHR3v+Pzs7W0ePHlX9+vVVrlw5/fTTT57HbrjhBkVFRXnNwvrqq6+UkpLyt7xHFw0sAAAAAAAAH/bu3atq1aqpbNmyXnH3rxLu3bvX89+wsDDVq1fPa7lGjRrlec309HQ99thjnntqVahQQRUrVtSJEyeUmprqWa5cuXLq16+f5s2b54nNnTtX1atXV/fu3YutxlBBAwsAAAAAACBA7rrrLk2dOlU33HCD5s+fr2XLlmn58uWKi4uTy+XyWnb48OHatWuXvv/+e508eVKLFi3STTfdpLCwv187h3tgAQAAAAAA+FCrVi2tWLFCJ0+e9JqFtXPnTs/j7v+6XC79/vvvXrOufv311zyvuXDhQo0YMUL/+c9/PLGMjAydOHEiz7I9e/ZUxYoVNXfuXLVv315nzpzx3CPr7+bv17IDAAAAAAAohN69e8vpdOqll17yij///PMyDEO9evWSJM9/X3zxRa/lZsyYkec1bTabTNP0is2cOVNOpzPPsna7XTfddJPmz5+vOXPm6LLLLlOzZs0upKSQxQwsAAAAAAAAH/r166du3brp4Ycf1p49e9S8eXMtW7ZMn332me655x7PPa9atGihm266SS+//LJSU1PVoUMHrVy5Uv/73//yvGbfvn317rvvKjY2VpdeeqnWrVunFStWKC4uzmcOw4cP14svvqhVq1bpqaeeKtF6rYwGFgAAAAAAgA9hYWFatGiRHnvsMX344YeaPXu2ateurWeeeUb33Xef17JvvfWW53K/Tz/9VN27d9cXX3yhGjVqeC33wgsvyGazae7cucrIyNCVV16pFStW6Nprr/WZQ+vWrZWQkKAdO3bo5ptvLrFarc4wz523FgLS0tIUGxur1NRUxcTEBDud4vHOO8HO4Kzhw4OdAQAAAADAIjIyMrR7927VqVNHUVFRwU7nb6lly5YqX768Vq5cGexU/CpoP7nQXg73wAIAAAAAALCoTZs2afPmzRr+N59swiWEAAAAAAAAFrNt2zb9+OOP+s9//qOqVatqyJAhwU4pqJiBBQAAAAAAYDELFy7UqFGjlJ2drffff/9vf/kmDSwAAAAAAACLmTRpklwul3bs2KEuXboEO52go4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAApkmmawU4CFlfT+QQMLAAAAAAD4ZbPZJEnZ2dlBzgRW5t4/3PtLcaOBBQAAAAAA/AoPD1dkZKRSU1OZhQWfTNNUamqqIiMjFR4eXiLrsJfIqwIAAAAAgItGhQoVdODAAe3fv1+xsbEKDw+XYRjBTgtBZpqmsrOzlZqaqlOnTql69eolti4aWAAAAAAAIF8xMTGSpJSUFB04cCDI2cBqIiMjVb16dc9+UhJoYAEAAAAAgALFxMQoJiZG2dnZcjqdwU4HFmGz2UrsssHcaGABAAAAAIBCCw8PD0jDAsitWG7ifurUKU2cOFE9e/ZU+fLlZRiG5syZ43PZHTt2qGfPnipTpozKly+vYcOG6ciRI8WRBgAAAAAAAC5CxTIDKyUlRVOmTFHNmjXVvHlzrV692udy+/fvV+fOnRUbG6tp06bp1KlTevbZZ7V161Zt3LhRERERxZEOAAAAAAAALiLF0sCqWrWqDh48qCpVqmjTpk1q27atz+WmTZum06dP68cff1TNmjUlSe3atdM111yjOXPmaOzYscWRDgAAAAAAAC4ixXIJYWRkpKpUqVLgch999JH69u3raV5J0tVXX62GDRtq/vz5xZEKAAAAAAAALjLF0sAqjAMHDujPP/9UmzZt8jzWrl07JSYmBioVAAAAAAAAhJCA/QrhwYMHJeVcbniuqlWr6tixY8rMzFRkZGSexzMzM5WZmen5e1pamiTJ4XDI4XBIksLCwhQWFiaXyyWXy+VZ1h13Op0yTbPAuM1mk2EYntfNHZeU56dC/cXtdrtM0/SKG4Yhm82WJ0fDMGST5PrrjyfHv/74izslmYWI2yQZkrwryonrr+W94n+9Hxdck494yG8naqImaqImaqImaqImaqImaqImaqImaipyTefWVVQBa2Clp6dLks8GVVRUlGcZX49Pnz5dkydPzhNPTExU6dKlJUkVK1ZUvXr1tHv3bq9fNYyPj1d8fLySkpKUmprqidetW1eVKlXStm3bPLlJUuPGjVWuXDklJiZ6bexmzZopIiJCmzZt8sqhTZs2ysrK0s8//+yJ2Ww2tW3bVqmpqdq5c6cnHh0drebNmyslJUW7du3yxGNjY9VEUnJ4uPbn+inSig6H6mVlaXdEhI7Yz26q+OxsxWdnKykyUqk2mydeNytLlRwObYuKUnrY2cl1jTMyVM7lUmJ0tJyGcbam9HRFmKY2lSrlXZPTWTw1NWmi5ORk7d+//2xNob6dqImaqImaqImaqImaqImaqImaqImaqKnINbknI50vw8zdGisG7pu4z549WyNHjswTf+eddzRs2DCv5zzwwAN65plnlJGRUegZWDVq1NDRo0cVExMj6SLoeM6da50ZWH9tn1Dp4nrlfpF0pqmJmqiJmqiJmqiJmqiJmqiJmqiJmi6mmtLS0hQXF6fU1FRPL6coAjYDy33poPtSwtwOHjyo8uXL+2xeSTmztnw9ZrfbZbd7l+B+087l3rCFjZ/7uucTNwzDZ9xfju4GVGHjvjP3H/e3sfPE/5qlVSw1FTEeEtuJmqjJT45FjVMTNUnU5C/HosapiZokavKXY1Hj1ERNEjX5y7GocWqiJoma3Dn6y7+wAnYT9+rVq6tixYp5prxJ0saNG9WiRYtApQIAAAAAAIAQErAGliQNHDhQn3/+ufbt2+eJrVy5UklJSRo8eHAgUwEAAAAAAECIKLZLCF966SWdOHFCycnJkqTFixd7bgB21113KTY2Vg899JAWLFigbt266e6779apU6f0zDPP6LLLLtOoUaOKKxUAAAAAAABcRIrtJu61a9fW3r17fT62e/du1a5dW5L0yy+/6N5779V3332niIgI9enTR//5z39UuXLlQq8rLS1NsbGx533jL0t6551gZ3DW8OHBzgAAAAAAAFxELrSXU2wzsPbs2VOo5RISEvTVV18V12oBAAAAAABwkQvoPbAAAAAAAACAoqKBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsLeAPrt99+04033qj4+HiVKlVKjRs31pQpU3TmzJlApwIAAAAAAIAQYA/kyvbt26d27dopNjZWd955p8qXL69169Zp4sSJ+vHHH/XZZ58FMh0AAAAAAACEgIA2sN59912dOHFC3333nRISEiRJY8eOlcvl0jvvvKPjx4/rkksuCWRKAAAAAAAAsLiAXkKYlpYmSapcubJXvGrVqgoLC1NEREQg0wEAAAAAAEAICGgDq2vXrpKkMWPGaPPmzdq3b58+/PBDvfLKKxo/frxKly4dyHQAAAAAAAAQAgJ6CWHPnj31+OOPa9q0aVq0aJEn/vDDD+uJJ57w+7zMzExlZmZ6/u6eyeVwOORwOCRJYWFhCgsLk8vlksvl8izrjjudTpmmWWDcZrPJMAzP6+aOS5LT6SxU3G63yzRNr7hhGLLZbHlyNAxDNkmuv/54cvzrj7+4U5JZiLhNkiHJu6KcuP5a3iv+1/txwTX5iIf8dqImaqImaqImaqImaqImaqImaqImaqKmItd0bl1FFdAGliTVrl1bnTt31sCBAxUXF6cvvvhC06ZNU5UqVXTnnXf6fM706dM1efLkPPHExETPrK2KFSuqXr162r17t44cOeJZJj4+XvHx8UpKSlJqaqonXrduXVWqVEnbtm1Tenq6J964cWOVK1dOiYmJXhu7WbNmioiI0KZNm7xyaNOmjbKysvTzzz97YjabTW3btlVqaqp27tzpiUdHR6t58+ZKSUnRrl27PPHY2Fg1kZQcHq794eGeeEWHQ/WysrQ7IkJH7Gc3VXx2tuKzs5UUGalUm80Tr5uVpUoOh7ZFRSk97OzkusYZGSrncikxOlpOwzhbU3q6IkxTm0qV8q7J6Syempo0UXJysvbv33+2plDfTtRETdRETdRETdRETdRETdRETdRETdRU5Jrck5HOl2Hmbo2VsA8++ECjR49WUlKS4uPjPfFRo0Zp/vz5+uOPPxQXF5fneb5mYNWoUUNHjx5VTEyMpIug4zl3rnVmYA0bVjw10ZmmJmqiJmqiJmqiJmqiJmqiJmqiJmqiJodDaWlpiouLU2pqqqeXUxQBbWB17txZTqdTa9eu9Yp/8sknGjBggJYvX66rr766wNdJS0tTbGzseRdtSe+8E+wMzho+PNgZAAAAAACAi8iF9nICehP3w4cP5+kMSlJ2drYkXfD1kAAAAAAAALj4BLSB1bBhQyUmJiopKckr/v777yssLEzNmjULZDoAAAAAAAAIAQG9ifv999+vpUuXqlOnTrrzzjsVFxenzz//XEuXLtUtt9yiatWqBTIdAAAAAAAAhICANrA6d+6s77//XpMmTdLLL7+so0ePqk6dOpo6daoeeOCBQKYCAAAAAACAEBHQBpYktWvXTkuWLAn0agEAAAAAABCiAnoPLAAAAAAAAKCoaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNLswU4AAAAAQMGWbQt2Bmf1aBrsDAAAfzc0sAAAAAAUOxpuAIDixCWEAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDR7sBMAAAAAgmXZtmBncFaPpsHO4O+L/QAArC8oM7B++ukn9e/fX+XLl1epUqXUtGlTvfjii8FIBQAAAAAAABYX8BlYy5YtU79+/dSyZUs9+uijKlOmjH7//Xft378/0KkAAAAAAAAgBAS0gZWWlqbhw4erT58+WrhwocLCuAUXAAAAAAAA8hfQDtK8efN0+PBhTZ06VWFhYTp9+rRcLlcgUwAAAAAAAECICWgDa8WKFYqJidGBAwfUqFEjlSlTRjExMbrtttuUkZERyFQAAAAAAAAQIgJ6CeFvv/0mh8Oh6667TmPGjNH06dO1evVqzZw5UydOnND777/v83mZmZnKzMz0/D0tLU2S5HA45HA4JElhYWEKCwuTy+XymtXljjudTpmmWWDcZrPJMAzP6+aOS5LT6SxU3G63yzRNr7hhGLLZbHlyNAxDNkmuv/54cvzrj7+4U5JZiLhNkiHJu6KcuP5a3iv+1/txwTX5iIf8dqImaqImaqImaqKmi6omM/eHLOOvT0fmOZ+O/MSNsJyavOOGjDCbTNOlc17cd9wIk2GEyTRdcjjyr8l05Vredc4nPiOnJtN1zie+EqrJ4Sh4O/mtNU/ugakpv33vbJoFb6eSrin3oRZqx1NuF8s5gpqoiZqKr6Zz6yqqgDawTp06pTNnzmjcuHGeXx0cMGCAsrKy9Nprr2nKlClq0KBBnudNnz5dkydPzhNPTExU6dKlJUkVK1ZUvXr1tHv3bh05csSzTHx8vOLj45WUlKTU1FRPvG7duqpUqZK2bdum9PR0T7xx48YqV66cEhMTvTZ2s2bNFBERoU2bNnnl0KZNG2VlZennn3/2xGw2m9q2bavU1FTt3LnTE4+Ojlbz5s2VkpKiXbt2eeKxsbFqIik5PFz7w8M98YoOh+plZWl3RISO2M9uqvjsbMVnZyspMlKpNpsnXjcrS5UcDm2LilJ6rvuLNc7IUDmXS4nR0XIaxtma0tMVYZraVKqUd01OZ/HU1KSJkpOTvW7QH/LbiZqoiZqoiZqoiZouqpqyTpytKbxCMxm2CGUd9q4ponIbmc4sZaecrckwbIqo0lZmVqqyj52tybBHK6Jic7nSU+RIPVtTWGSswss3kfNUspynztZki64oe7l6cqbu1qZN+deUdVKyx9aVrVQlZR/dJtNxtqbw8o1lRJZT9p+JMs2Sr2nTmYK3kzN1t5zpZ2uylYmXvWy8HCeS5Mo8u50CUVNB+17WycJvp5KuadOZszWF2vF0MZ4jqImaqKn4anJPRjpfhpm7NVbCmjZtql9++UXffPONOnfu7Il/++236tKli95++20NHz48z/N8zcCqUaOGjh49qpiYGEkXQcdz7lzrzMAaNqx4aqIzTU3URE3URE3URE0Wr2nl9lxJBnkG1lVN8q9p5fZcywd5BtZVlxa8nb7aap0ZWNck5L/vnd0Pgj8D66pLz4ZD7XjK7WI5R1ATNVFT8dWUlpamuLg4paameno5RRHQGVjVqlXTL7/8osqVK3vFK1WqJEk6fvy4z+dFRkYqMjIyT9xut8tu9y7B/aady71hCxs/93XPJ24Yhs+4vxzdDajCxn1n7j/ub2Pnif81S6tYaipiPCS2EzVRk58cixqnJmqSqMlfjkWNUxM1SedXk+HrQ5bh51OTj7hhGH7iYfL14vnF7fb8a8r9NCPMd01GWOFz9xcvTE25N6O/7eG3Vr+5l2xN+e1756ZZ5O1XjDX5OqRC5Xi60Dg1UZNETf5yLGrcijX5y7+wAnoT99atW0uSDhw44BVPTk6WlDNFDQAAAAAAAMgtoA2sG264QZL05ptvesVnzZolu92url27BjIdAAAAAAAAhICAXkLYsmVLjR49Wm+99ZYcDoe6dOmi1atXa8GCBZowYYKqVasWyHQAAAAAAAAQAgLawJKkV199VTVr1tTs2bP1ySefqFatWnr++ed1zz33BDoVAAAAAAAAhICAN7DCw8M1ceJETZw4MdCrBgAAAAAAQAgK6D2wAAAAAAAAgKKigQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsL+E3cAQAAAADnb9m2YGdwVo+mwc4AwN8FM7AAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBp9mAnAAAAgIvHsm3BzuCsHk2DnQEAACguzMACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXxK4QAAAAAgBLBL5MCKC7MwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXZg50AAAAAAABWsGxbsDM4q0fTYGcAWAszsAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBp3MQdAAAAAIAQww3n8XfDDCwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBq/QggAAAAAAEoUv5qIC8UMLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYmj3YCQAAACB/y7YFO4OzejQNdgYAAODviAYWAAAAAADAX/iHI2viEkIAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBq/QmgRv6cEO4Oz6gU7AQAAAAAAgFyYgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsLegNr6tSpMgxDTZs2DXYqAAAAAAAAsKCgNrD279+vadOmqXTp0sFMAwAAAAAAABZmD+bK//Wvf+nyyy+X0+lUSkpKMFMBAAAAAACARQVtBta3336rhQsXasaMGcFKAQAAAAAAACEgKA0sp9Opu+66S7fccosuu+yyYKQAAAAAAACAEBGUSwhfffVV7d27VytWrCjU8pmZmcrMzPT8PS0tTZLkcDjkcDgkSWFhYQoLC5PL5ZLL5fIs6447nU6Zpllg3GazyTAMz+vmjks5zbfCxO12u0zT9IobhiGbzZYnR8MwJEmmJNPI9SJmTofRJUm54oaZ81dX7mXPM65z1yl53o8LrclXPNS3EzVREzVREzVRUzBqMv/6MGCE2WSaLnfAXZXvuBEmwwjzH3c5lfPpo6B4Tk2mK6cmd2n+cjdN21//4x03wnJq8o6XbE0uV8HbyXu1vnP3Fy/umhyO/Pc90+W/1nO3U0nX5HAUfDwV9753oTXld444m2Zgjydfuec+ffg7zqTAH0/+4qaZ/3kvZ3nftXqFA3COKMy5POc4C+zx5C/ucOQ/PknBO57OrUkqeMz1lBvA48lfPPfu6utzhOmyxpgr5ewHF8tno3PPE0UV8AbW0aNH9dhjj+nRRx9VxYoVC/Wc6dOna/LkyXniiYmJnhvAV6xYUfXq1dPu3bt15MgRzzLx8fGKj49XUlKSUlNTPfG6deuqUqVK2rZtm9LT0z3xxo0bq1y5ckpMTPTa2M2aNVNERIQ2bdrklUObNm2UlZWln3/+2ROz2Wxq27atUlNTtXPnTk88OjpazZs3V0pKinbt2uWJx8bGKkJSaplwpZYJ98TLpDsUl5ql47EROhV9dlPFnspWuVPZOlIuUhmRNk+8fGqWyqY7dCguStn2s5PrKh3LUHSWS/srRcs0znarqqaky+40ta9yKa+a6jidxVJTkyZNlJycrP3793viob6dqImaqImaqImaglFT1knJsEcromJzudJT5Eg9W1NYZKzCyzeR81SynKfO1mSLrih7uXpypu6WM/1sTbYy8bKXjZfjRJJcmWdrssfWla1UJWUf3SbTcbam8PKNZUSWU/afiTJNpzadyb8mlWoj05ml7JSzNRmGTRFV2srMSlX2sbPbqaRrSqlS8HbKOnF2O4VXaCbDFqGsw941RVQOTE2bNuW/72WdLPx2KumaNp0p+Hgq7n3vQmoq6ByRdbLw26mka3IfY5L/c4SiA388+asptWb+571gHU++airMuTzrZOCPJ381bTqT//gkBed48lWTVPCY6z7OAnk8+avJfZz5+xyRnW6NMVfK2Q8uls9G7slI58swc7fGAuC2227TihUr9MsvvygiIkKS1LVrV6WkpGjbtm0+n+NrBlaNGjV09OhRxcTESLL+v5xK+Xc897ww1zIzsOrfM6xYagrFf+GmJmqiJmqiJmqyYk0rt0tWmYF11aX5575yh3VmYF3TtODtlPPenq3VV+6BmjFyVZP8972V2/3XGugZI1ddWvDx9NVW68zAuiYh/3PE2f0g+DOw3MeY5P84+3qndWZg9bgs//Pesq3WmYF1VZOCz+U5x5k1ZmBddWn+49OK7daZgXVts4LHXM9xZoEZWLmPM1+fI1Zut8aYK+XsBxfLZ6O0tDTFxcUpNTXV08spioDOwPrtt9/0+uuva8aMGUpOTvbEMzIylJ2drT179igmJkbly5f3el5kZKQiIyPzvJ7dbpfd7l2C+007l3vDFjZ+7uueT9wwDJ9xfzkaOttU8lpe8tqnPXE/rceixs9dp/uSxuKoqajxUNhO1ERN/nIsapyaqEmiJn85FjV+sddkhOWOh3kHzjce5jt3/3H7X7nmn7tnsrfhuybf8ZKpyb0p89tOPl7GZ47+4sVZk92e/77ntR8UsJ3yPlC8NeXe7H4/2xbzvpf3gaLVlN854tw0A3U85X3AnucYk/yfIwJ5PPmLu495f+e3omy/kq6pMOdy7+MsMMeTv3ihjrMgHU++4gWNrYU+zgJQ07m767nnCHdawR5zJe/9INQ/G/nLv7ACehP3AwcOyOVyafz48apTp47nz4YNG5SUlKQ6depoypQpgUwJAAAAAAAAFhfQGVhNmzbVJ598kif+yCOP6OTJk3rhhRdUr169QKYEAAAAAAAAiwtoA6tChQr6xz/+kSc+Y8YMSfL5GAAAAAAAAP7eAnoJIQAAAAAAAFBUAZ2B5c/q1auDnQIAAAAAAAAsihlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNEvcAwuhZdm2YGdwVo+mwc4AAAAAAACUNGZgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0rgHFgAA+Nvhfo4AAAChhRlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDR7sBMAStqybcHO4KweTYOdAQAAAAAAoYcZWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNH6FEAAAFAt+9RUAAAAlhRlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNHuwEwBw1rJtwc7grB5Ng50BAAAAAAA5mIEFAAAAAAAAS2MGFgAAFsWsTAAAACAHM7AAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaQFtYP3www+68847lZCQoNKlS6tmzZq64YYblJSUFMg0AAAAAAAAEELsgVzZU089pbVr12rw4MFq1qyZDh06pJdeekmtWrXS+vXr1bRp00CmAwAAAAAAgBAQ0AbWvffeq3nz5ikiIsITGzJkiC677DI9+eSTeu+99wKZDgAAAAAAAEJAQBtYHTp0yBNr0KCBEhIStGPHjkCmAgAAAAAAgBAR9Ju4m6apw4cPq0KFCsFOBQAAAAAAABYU0BlYvsydO1cHDhzQlClT/C6TmZmpzMxMz9/T0tIkSQ6HQw6HQ5IUFhamsLAwuVwuuVwuz7LuuNPplGmaBcZtNpsMw/C8bu64JDmdzkLF7Xa7TNP0ihuGIZvNlidHwzAkSaYk08j1ImZOh9ElSbnihpnzV1fuZc8zrnPXKXneD381ma7ccUNGmE2m6ZJMV8FxI0yGEeY/7nL+9U4UFC/8djJdOcvn/MW7JiMspybveMnV5HDkv+9JhkyXd03+ci/pmqTQPZ58xUP9HEFNf9OaXHnPe8E6RzgcBddkmud3Li+JmpzO/LdTSY9PRanJNAve98y/PgwEc8x11+Q+rPwdN6ZpjTFXklyugs8R3qsNzpjrrsnXcZY795zPNIE/nnzl7nAUfN4LxvGUX035ncvPphnY48lX7rmHLn/HmRT448lf3DTzH3O9vzsoYMeTr3hhPke4vzsEc8zNfZzl9zlCssaYm/Nts+DPRp5ygzjmuuO5d1dfn/dMlzXGXClnPwi5z7B+xtxzzxNFFdQG1s6dO3XHHXfoiiuu0IgRI/wuN336dE2ePDlPPDExUaVLl5YkVaxYUfXq1dPu3bt15MgRzzLx8fGKj49XUlKSUlNTPfG6deuqUqVK2rZtm9LT0z3xxo0bq1y5ckpMTPTa2M2aNVNERIQ2bdrklUObNm2UlZWln3/+2ROz2Wxq27atUlNTtXPnTk88OjpazZs3V0pKinbt2uWJx8bGKkJSaplwpZYJ98TLpDsUl5ql47EROhV9dlPFnspWuVPZOlIuUhmRNk+8fGqWyqY7dCguStn2s5PrKh3LUHSWS/srRcs0znarqqaky+40ta9yKa+a6jid+daUdfhsTYY9WhEVm8uVniJH6tmawiJjFV6+iZynkuU8tf/s60RXlL1cPTlTd8uZfnY72crEy142Xo4TSXJlnt1O9ti6spWqpOyj22Q6zm6n8PKNZUQWbjtlnZQiKreR6cxSdsrZmgzDpogqbWVmpSr7WGBq2nQm/31PKqfsPxNl5jrZhldoJsMWoazD3vteSdckhe7x1KRJEyUnJ2v//rM1hfo5gpr+njVl/Zn3vBesc8SmTQXX5DTP71xeEjVtM/PfTiU9PhWlpvT0gve9rJPBH3PdNW06kxP3dzyplDXGXElKqVLwOSLrRPDHXHdNmzblf47IOhmc48lXTZvOFHzeC8bx5K+mgs7lWScLv51Kuib3MSb5H58UHfjjyV9NqTXzH3ODdTz5qqkwnyOyTgZ/zHXXtOlM/p8jJGuMuYY9WlLBn43cx1kwx1x3Te7jzN/nvex0a4y5Us5+EGqfYf2Nue7JSOfLMHO3xgLo0KFDuvLKK5Wdna3169erWrVqfpf1NQOrRo0aOnr0qGJiYiSF/r/a73lhrmVmYNW/Z1i+NS3bGvx/6XF3prs3Lng7rdyuoP5LT+7cr7o0/31v+S/B/5ced+7XXha6xxMze6gpv5qWbVPQZlf4Os7yq2nFL9aZgXVVk4K308od1pmBdXVC/vveV1utMwOrR9OCj6eV26Vgj7numq66NCfs71ywcoc1xlxJuqZpweeInPf2bK2+cg/UOcLXcZY795zPNNaYgXXVpQWfy/0eZ0E4R1yTkP/4dHY/CP4MLPcxJvk/zr7eaZ0ZWD0uy/9zhPd3BwXsePIVv6pJwZ8j3N8drDADK/d3B1/H2Yrt1hhzJUPXNiv4857nOLPADKzcx5mvz7Art1tjzJVy9oOL5XN5Wlqa4uLilJqa6unlFEVQZmClpqaqV69eOnHihNasWZNv80qSIiMjFRkZmSdut9tlt3uX4H7TzuXesIWNn/u65xM3DMNn3F+Ohs42lbyWl7z2aU/cT+uxqPFz1+m+pNFfTUaYr3iYZPioqajxMN/bw1+8MNvDazWG75p8x4u/ptzp+tv3fL2/OQ8UPl5cNRV0PC3blucR3zn6PdUUJW74iedMn+7R9Jyon9xD+RxBTcVTk2EoKMeTv3h+NflYPGjnCLu94O3knuRb1HN5SdTkflv9jrklPD4VpSbDKPh4yp1SsMZcd03npnpu7p7J3kEecyXJvenzO0f4Os6CdY7wdZzlzt1rPwjg8ZQ7R3cSuTd7kY+zIJ0j8hufzk0zmOcIX8Ouv3NEII8nf3H3Me/v80LRzofBG3PP5pvrdYL8ubxQx5kFxtyCcizycRaAms7dXc89R7jTCvaYK3nvB6H+udxf/oUV8AZWRkaG+vXrp6SkJK1YsUKXXnppwU8CAAAAAADA31ZAG1hOp1NDhgzRunXr9Nlnn+mKK64I5OoBAAAAAAAQggLawLrvvvu0aNEi9evXT8eOHdN7773n9fjQoUMDmQ4AAAAAAABCQEAbWJs3b5YkLV68WIsXL87zOA0sAAAAAAAAnCugDazVq1cHcnUAAAAAAAC4CPj63RUAAAAAAADAMmhgAQAAAAAAwNJoYAEAAAAAAMDSAnoPLADAxWfZtmBncFaPpsHOAAAAAEBJYAYWAAAAAAAALI0ZWAD+FpglBAAAAAChixlYAAAAAAAAsDRmYAGABTFjDAAAAADOYgYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACwt4A2szMxMPfjgg6pWrZqio6PVvn17LV++PNBpAAAAAAAAIEQEvIE1cuRIPffcc7r55pv1wgsvyGazqXfv3vruu+8CnQoAAAAAAABCgD2QK9u4caM++OADPfPMM/rXv/4lSRo+fLiaNm2qBx54QN9//30g0wEAAAAAAEAICOgMrIULF8pms2ns2LGeWFRUlMaMGaN169Zp3759gUwHAAAAAAAAISCgDazExEQ1bNhQMTExXvF27dpJkjZv3hzIdAAAAAAAABACAnoJ4cGDB1W1atU8cXcsOTnZ5/MyMzOVmZnp+Xtqaqok6dixY3I4HJKksLAwhYWFyeVyyeVyeZZ1x51Op0zTLDBus9lkGIbndXPHJcnpdBYqbrfbZZqmV9wwDNlstjw5GoahkxnpMiXJyPUiZs5f/cZzx84zrnNfW2ffX381nUrLHTdkhNlkmi7JdBUcN8JkGGH+4y5nrsTyi+dsp2PHCt5Op9Jyls+p2bsmIyynJu94ydV07Fj++97pU4ZMl3dN/nIv6ZrS0go+nk6l+a/VnaNhBKamY8f+ivo5zk6dLN5970JqOnas4HPEqbTAH0/+ajp2LP/znns/CPTx5Cvu3g/yO5efOqmAH0/+akpLy398OpUWnOPJV/zYsbznAr/HWQCPJ381HT/uf8zN2Q+Cczz5qik1teDPETnHWXDHXHdNuY8zKW/up05aY8yVpBMnCv685xnL/qrVV+6BOkf4Os5y557zmSb4Y66Usx/4G3Pdufs9zoJwjkhNzf9z+dn9ILhjrkyn5xiT/B9np08Ff8x1S03N//uT93cHBex48hU/frzg74Tu7w7BHHNzH2f5fc89fcoaY65kKC3N/5ib5zgL4pjrjuc+znx9Lj+VZo0xV8rZD0q6H5Hfubw4eyxpaTk7Qe7HiyKgDaz09HRFRkbmiUdFRXke92X69OmaPHlynnidOnWKN0HkeGhcsDMAAAAAAAAXoZMnTyo2NrbIzwtoAys6OtprJpVbRkaG53FfJkyYoHvvvdfzd5fLpWPHjikuLk6Gce60or+ntLQ01ahRQ/v27ctziaYVhVK+oZSrFFr5hlKuUmjlG0q5SqGVbyjlKoVWvqGUqxRa+YZSrlJo5RtKuUqhlW8o5SqFVr6hlKsUWvmGUq5SaOUbSrlKoZdvIJimqZMnT6patWrn9fyANrCqVq2qAwcO5IkfPHhQkvwWERkZmWfmVrly5Yo9v4tBTExMSB0coZRvKOUqhVa+oZSrFFr5hlKuUmjlG0q5SqGVbyjlKoVWvqGUqxRa+YZSrlJo5RtKuUqhlW8o5SqFVr6hlKsUWvmGUq5S6OVb0s5n5pVbQG/i3qJFCyUlJXmue3TbsGGD53EAAAAAAAAgt4A2sAYNGiSn06nXX3/dE8vMzNTs2bPVvn171ahRI5DpAAAAAAAAIAQE9BLC9u3ba/DgwZowYYL+/PNP1a9fX2+//bb27NmjN998M5CpXHQiIyM1ceJEnzfJt6JQyjeUcpVCK99QylUKrXxDKVcptPINpVyl0Mo3lHKVQivfUMpVCq18QylXKbTyDaVcpdDKN5RylUIr31DKVQqtfEMpVyn08g0Fhnm+v194njIyMvToo4/qvffe0/Hjx9WsWTM9/vjjuvbaawOZBgAAAAAAAEJEwBtYAAAAAAAAQFEE9B5YAAAAAAAAQFHRwAIAAAAAAICl0cACAAAAAACApdHACnGZmZl68MEHVa1aNUVHR6t9+/Zavnx5sNPy6dSpU5o4caJ69uyp8uXLyzAMzZkzJ9hp+fTDDz/ozjvvVEJCgkqXLq2aNWvqhhtuUFJSUrBT8+mXX37R4MGDVbduXZUqVUoVKlRQ586dtXjx4mCnVihTp06VYRhq2rRpsFPJY/Xq1TIMw+ef9evXBzs9n3766Sf1799f5cuXV6lSpdS0aVO9+OKLwU4rj5EjR/p9bw3D0IEDB4KdopfffvtNN954o+Lj41WqVCk1btxYU6ZM0ZkzZ4Kdmk8//vijevbsqZiYGJUtW1Y9evTQ5s2bg51WkcaCHTt2qGfPnipTpozKly+vYcOG6ciRI5bLdePGjbr99tvVunVrhYeHyzCMgOWYW2HydblcmjNnjvr3768aNWqodOnSatq0qZ544gllZGRYKldJeuONN9SlSxdVrlxZkZGRqlOnjkaNGqU9e/YELNei5Jtbdna2Lr30UhmGoWeffTYwiarwufo7Bzdu3DhguRYlXyln/33llVfUokULRUdHKy4uTt27d9eWLVsslWt+Y9s111wTkFyLkq8kzZ8/X5dffrnKlSunuLg4denSRV988YUlc33ppZfUpEkTRUZGqnr16rr33nt1+vTpgOValO8</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +96,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,27 +413,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45687</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>9.16309809196412</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45687</v>
+      </c>
+      <c r="H2">
+        <v>4.348516376332625</v>
+      </c>
+      <c r="I2">
+        <v>-0.6612457159234781</v>
+      </c>
+      <c r="J2">
+        <v>9.16309809196412</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/calculated_KPIs_critical_alerts.xlsx
+++ b/calculated_KPIs_critical_alerts.xlsx
@@ -14,54 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>forecast</t>
-  </si>
-  <si>
-    <t>forecast_time</t>
-  </si>
-  <si>
-    <t>forecast_value</t>
-  </si>
-  <si>
-    <t>forecast_lower</t>
-  </si>
-  <si>
-    <t>forecast_upper</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>index</t>
   </si>
-  <si>
-    <t>pod_tbs</t>
-  </si>
-  <si>
-    <t>iVBORw0KGgoAAAANSUhEUgAABLAAAAJYCAYAAABy5h8aAAAAOXRFWHRTb2Z0d2FyZQBNYXRwbG90bGliIHZlcnNpb24zLjkuNCwgaHR0cHM6Ly9tYXRwbG90bGliLm9yZy8ekN5oAAAACXBIWXMAAA9hAAAPYQGoP6dpAACA5UlEQVR4nOzdd3xTdfv/8fdp0sVokbIpe1tkD0W2imxvGaK3bPwiLvSnt3rjYijguhXF24mCA1TABQrKEBSRIVoQBKy3DIECUkbL6Epyfn/UhIYmHdAmJ/h6Ph48lCsnOdeVMz7JxeecGKZpmgIAAAAAAAAsKizYCQAAAAAAAAD5oYEFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAgIXUrl1bhmF4/YmMjFTNmjU1ZMgQrVmzJiB5jBw5UoZhaM6cOQFZX0lxv5979uwJdioXPff+CgAAUBJoYAEAYEFXXnmlRowYoREjRqhXr15yuVyaP3++unTpoueeey7Y6VlCKDXZAtlImzNnjgzD0MiRI0t8XQAAAIFiD3YCAAAgr1tuucWrAZGRkaFbb71V77zzjh544AH17dtXDRs2DF6CIWLlypXKzs5W9erVg50KAAAALgAzsAAACAFRUVH673//q9KlS8vpdOrjjz8OdkohoV69emrcuLHCw8ODnQoAAAAuAA0sAABCRJkyZdSoUSNJynMp2ldffaW+ffuqUqVKioiIULVq1TRkyBBt2rTJ7+sdO3ZM99xzj2rVquW5z9add96pY8eOnVd+kyZNkmEYmjRpkvbu3avhw4eratWqioqKUsOGDTVp0iSlp6fneV52drbee+893XzzzWrcuLFiYmIUHR2tRo0aafz48UpOTvZafs+ePTIMQ2+//bYkadSoUV73DJs0aZJn2YIu3Vu4cKF69uypihUrKiIiQtWrV9fQoUO1ffv2PMu611u7dm2ZpqnXX39drVu3VunSpRUbG6sePXpo3bp1Xs9xX863d+9eSVKdOnW8cl29erVn2RUrVqhfv36qXLmywsPDdckll6hBgwYaOnSovv3228JsAtWuXVujRo2SJL399tte6+ratavXsmfOnNGTTz6pVq1aqWzZsipVqpQSEhL0yCOP6Pjx44Vanz9vvPGG570pV66cevfurfXr1/td3uFwaNasWeratavKly+vyMhI1alTR7fddpv27dtX5PX/+OOPGjJkiOLj4xUREaGYmBjVrVtXAwcO1Geffeb3OTfffLNq1qypyMhIlS9fXtdee62WLFlSbHmvXr3asy2ys7P11FNPKSEhQdHR0YqLi9OAAQO0Y8eOItcLAMDfAZcQAgAQQtLS0iRJkZGRntijjz6qJ554QoZhqEOHDqpZs6Z27Nih+fPn66OPPtLrr7+u0aNHe73O4cOH1alTJ/3222+65JJL1LdvX7lcLs2dO1dffvmlEhISzjvH3bt3q3Xr1rLb7ercubPS09O1atUqTZ48WStWrNCKFSsUFRXllcuwYcMUGxurJk2aqFmzZjp9+rQ2b96smTNn6oMPPtD333+v+vXrS8pp5I0YMULfffedfv/9d1155ZWexySpRYsWBebocDh08803a/78+YqMjFTr1q1VvXp1JSUlae7cufr444/18ccfq2fPnj6fP2rUKM2bN0+dOnVS3759tXnzZi1fvlzffvutvvnmG7Vv316SVL9+fY0YMUILFy7U6dOnNXDgQJUpU8bzOlWqVJGU02xyN57atWunbt26KT09Xfv379cHH3ygChUqqHPnzgXWNWjQIK1fv15r165VvXr11LFjR89jjRs39vz/sWPHdNVVV2nz5s2KiYlR9+7dFR4erm+++UZTp07VvHnz9PXXX6t27doFrvNc9957r2bMmKErr7xS1113nbZu3aqlS5dq+fLlmj9/vq6//nqv5U+ePKn+/ftr9erVKlOmjFq3bq2KFStq69atevXVV7VgwQItX75cLVu2LNT6V65cqV69eik7O1vNmzfXFVdcIafTqQMHDuiLL76Q0+nUdddd5/WcF154Qffee69cLpdatGih9u3b69ChQ1q9erWWLVumyZMn67HHHiu2vLOzs9W7d299//336ty5s5o0aaKNGzfqk08+0apVq5SYmHhe7z0AABc1EwAAWEatWrVMSebs2bPzPLZlyxYzLCzMlGS+9dZbpmma5tKlS01JZlRUlLls2TKv5WfNmmVKMsPDw81t27Z5PTZo0CBTktmpUyfzxIkTnvjRo0fN9u3bm5L85uHPxIkTPc+77rrrzDNnznge27dvn9mwYUNTkvnvf//b63lpaWnmZ599ZmZmZnrFs7KyzAkTJpiSzN69e+dZ34gRIwrM0f1+7t692yv+0EMPmZLM9u3bm7t27fJ6bMGCBabNZjMvueQS8/jx45747t27PfXVqlXL/PXXXz2PORwOc/To0aYks0ePHoXOw61OnTqmJHPNmjV5Hjt8+LD5008/+a3xXLNnzzYlmSNGjPC7zJAhQzz1p6SkeOInT540e/XqZUoyO3ToUOh1mqbpeW+io6PNlStXej329NNPm5LM2NhY8/Dhw16P/fOf/zQlmX379s3z2PPPP29KMhs0aGA6HI5C5dGtWzdTkvnee+/leezEiRPmunXrvGJffvmlaRiGWaFCBfObb77xeuznn3824+PjTUnm6tWrLzjvVatWed6nli1bmgcPHvQ8lp6ebl577bWmJHPs2LGFqhUAgL8TGlgAAFiIrwbWiRMnzC+++MKsV6+eKcmsVq2aeerUKdM0TfOqq64yJZn33nuvz9fr27evKcn8v//7P0/sjz/+MMPCwkzDMMxffvklz3MSExMvqIEVHR3t9cXcbfHixaYkMyYmxkxPTy/061arVs0MCwsz09LSvOLn28A6evSoGR0dbUZFRZn79+/3+bzbb7/dlGTOnDnTE8vdwFq0aFGe5xw8eNCUZEZGRppZWVkF5pFbqVKlzNjYWL91FEVBDay9e/d6tv+WLVvyPL5//34zKirKlGSuXbu20Ot1vzf33HOPz8fbtGljSjKnTp3qiW3fvt00DMOsVq1anu3r1rt3b1OSuXjx4kLlcemll5qSzGPHjhVqeXfDduHChT4fnz9/vinJHDhw4AXn7W5gGYZhbt68Oc9z1q9fb0oy69atW6jcAQD4O+EeWAAAWFDu+zqVK1dOffr00e+//6569eppyZIlKl26tBwOh9auXStJXr9YmNuYMWMkSatWrfLEvv32W7lcLrVq1UqXXnppnue0aNFCzZo1O+/ce/To4bk0Lre+ffsqLi5OaWlp+umnn/I8vmXLFj333HO66667NHr0aI0cOVIjR46Uw+GQy+XS//73v/POKbdVq1YpPT1dV155pd9fJ3TfL+r777/P85jdbvd5aWGVKlV0ySWXKDMzU0ePHi1STu3atVNqaqqGDx+uH3/8US6Xq0jPLwr39m/ZsqXP7Vy9enVde+21krz3m8IaMWKEz/jw4cMlyeu+X0uWLJFpmurVq5fKli3r83n5bQtf2rVrJ0m6+eab9d1338nhcPhdNiUlRRs3blR0dLT69etX6PVfaN41a9ZU8+bN88SbNGkiSTpw4IDfnAEA+LviHlgAAFhQ7vs6RUREqFKlSrr88svVs2dP2e05w/fRo0eVkZEhKefm4L7Uq1dPkvcX4v379+f7HPdjP//883nlnt/r1q5dW0ePHvXkIEmnT5/WsGHD9Mknn+T7uu77f12oXbt2Scq5V5JhGPkue+TIkTyxqlWr+v1Vw5iYGB0/ftyzXQrr5ZdfVt++ffXuu+/q3XffVdmyZdW2bVt1795dw4YNU82aNYv0evlx7wv5bSdf+01h+Xtddzz3tndvizfffFNvvvlmvq/ra1v4Mn36dP38889aunSpli5dqujoaLVq1Updu3bVzTff7GkSSTn3azNNU+np6V73lSto/Reat7/tGRMTI0nKzMzM9zUBAPg7ooEFAIAF3XLLLX5nVV0MTNP0/P+ECRP0ySefqHHjxnryySfVtm1bVahQQREREZKkDh06aN26dV7PuRDu2U3169fXlVdeme+yuW987hYWVvwT2Js0aaJff/1Vy5Yt09dff63vv/9ea9as0ddff60pU6bozTff1NChQ4t9vcGQezu6t0WLFi18zkjKzX1j/IJUqVJFmzZt0jfffKMVK1Zo7dq12rBhg9auXatp06Zp+vTpevDBB73WX6ZMGQ0cOLDQNVxo3iWxDwEAcLGjgQUAQIiKi4tTZGSkMjMztWvXLp+Xg7lniuS+VM79/3v27PH72vk9VpDdu3cX+Lrx8fGe2Pz58yVJH374oc8afvvtt/POxZcaNWpIkho1aqQ5c+YU62tfCLvdrt69e6t3796ScmacPffcc5o8ebJuvfVWXX/99SpduvQFr8e9/d37hi++9pvC2r17t89fgvS17d3b4sorr9RLL71U5HX5YxiGunbt6rmMLyMjQ3PmzNEdd9yhhx56SIMGDVK9evU86zcMQ2+99VahG0sllTcAAPCPf/4BACBE2e12dezYUZL8NmLeeustSVK3bt08sc6dO8swDP3000/auXNnnuds2bLlvC8flKRly5bpzz//zBNfsmSJjh49qrJly6p169ae+LFjxyRJtWrVyvOcr776SikpKT7X456hld89jny56qqrFBERodWrV/vMsyScT64xMTGaNGmSypUrpzNnzigpKalY1tW5c2eFhYVp8+bN2rJlS57HDx48qC+//FKS935TWO+++26+cXdTSZJ69eolSVq0aFGRL7ssiqioKI0bN07NmjWTy+Xy7N/VqlVTs2bNdPLkSU/NhRGovAEAwFk0sAAACGH33XefJOmVV17RypUrvR6bM2eOFi1apPDwcN19992eeM2aNXX99dfL5XLptttu87q31PHjx3X77bdf0OV66enpuu2225Senu6JJScne3IdN26coqKiPI+570k0c+ZMr9f59ddfNW7cOL/rcc/k+eWXX4qUX+XKlXXXXXfp9OnT6tevn7Zu3ZpnmczMTC1atMhng+985JfrmTNn9Nxzz/m8V9KaNWt04sQJ2Ww2r5lLhVnX9u3bfT5es2ZNDR48WKZp6tZbb/W64fzp06c1duxYZWRkqEOHDurQoUOh1pnbK6+84nWjdkl6/vnntXHjRpUtW9bzwwKS1LJlSw0cOFD79u3TgAEDfM78O336tObOnavDhw8Xav3PPvus/vjjjzzxnTt3embz5W6WPvHEE5Jyfjhh8eLFeZ5nmqY2bNigZcuWlWjeAAAgf1xCCABACOvVq5ceeeQRPfHEE7rmmmt05ZVXqmbNmtq5c6d++ukn2Ww2vfrqq0pISPB63n//+19t2bJFq1evVp06ddS1a1eZpqlVq1YpLi5O/fv316JFi84rp+HDh+vzzz9X3bp11alTJ2VkZOjrr7/W6dOndcUVV2jy5Mley0+cOFGDBg3So48+qvnz5yshIUF//vmn1qxZo06dOqlatWo+f8ntH//4hyZPnqwXX3xR27ZtU40aNRQWFqb+/furf//++eb45JNP6uDBg5o3b57nPkZ169aV3W7X/v37tXnzZp0+fVpLly71eR+soho4cKBWrVqloUOHqkePHrrkkkskSffff78qV66s++67T/fff78uu+wyNWjQQOHh4dqzZ4/Wr18vSXr44YdVsWLFQq3r8ssvV7Vq1ZSYmKhWrVrpsssuU3h4uBo1aqT7779fUs7237lzpzZs2KB69eqpW7dustvt+uabb3TkyBHVqVNHc+fOPa9ab731VnXv3l2dOnVS9erVtW3bNm3dulU2m01vvfVWnl+onD17tk6cOKGlS5eqUaNGat68uerUqSPTNLVnzx5t2bJFWVlZ2rFjhypXrlzg+p944gndf//9aty4sZo0aaLo6GglJyd7fpFw+PDhatWqlWf5fv366YUXXtB9992n/v37q379+mrUqJFiY2N15MgRbdmyRX/++acefPBB9ejRo8TyBgAABTABAIBl1KpVy5Rkzp49u0jPW7p0qdm7d28zLi7OtNvtZpUqVczBgwebGzZs8PuclJQU86677jLj4+PNiIgIMz4+3hw3bpx55MgRc8SIEUXOY+LEiaYkc+LEieauXbvMm266yaxcubIZERFh1q9f33zsscfM06dP+3zut99+a1511VVmhQoVzFKlSplNmzY1p06damZmZppdunQxJZmrVq3K87xPPvnEvPLKK82yZcuahmF41u/mfj93797tc71LliwxBwwYYFavXt0MDw83y5UrZzZp0sS88cYbzXnz5nnlu3v3blOSWatWLb/vgb/1OZ1Oc/r06WZCQoIZFRVlSvLUlJ2dbb766qvmTTfdZDZu3NiMjY01o6OjzXr16pkDBw40V65c6Xd9/mzdutXs37+/WbFiRTMsLMyUZHbp0sVrmdOnT5vTp083W7RoYZYqVcqMiooymzRpYj700EPmsWPHirxOd02maZqvvPKK2aJFCzM6OtqMiYkxe/bsaa5du9bvc51Opzlv3jyzd+/eZuXKlc3w8HAzLi7ObNq0qTlq1Cjzk08+MbOysgqVx3vvvWeOGjXKbNq0qVm+fHkzMjLSrFWrltmrVy/zk08+MV0ul8/nbd261Rw7dqzZoEEDMyoqyixVqpRZt25d89prrzVffPFF88CBAxec96pVq3xuC3/vIwAAOMswzWL6SR8AAPC3NmnSJE2ePFkTJ07UpEmTgp0OAAAALiLcAwsAAAAAAACWRgMLAAAAAAAAlkYDCwAAAAAAAJbGPbAAAAAAAABgaczAAgAAAAAAgKXRwAIAAAAAAICl2YOdwPlwuVxKTk5W2bJlZRhGsNMBAAAAAABAPkzT1MmTJ1WtWjWFhRV9PlVINrCSk5NVo0aNYKcBAAAAAACAIti3b5/i4+OL/LyQbGCVLVtWUk7RMTExQc4GAAAAAAAA+UlLS1ONGjU8PZ2iCskGlvuywZiYGBpYAAAAAAAAIeJ8bwXFTdwBAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGkh+SuEAAAAAAAg8EzTlNPplMPhCHYqsAi73S6bzXbevy5Y6PWU6KsDAAAAAICQZ5qmTpw4oSNHjsjpdAY7HViMzWZTpUqVFBsbW2KNLBpYAAAAAAAgX4cOHdKJEycUExOjmJgY2e32Ep9xA+szTVMOh0NpaWk6ePCg0tPTVbVq1RJZFw0sAAAAAADgl9PpVGpqqipWrKgKFSoEOx1YUNmyZRUZGamUlBRVqlRJNput2NfBTdwBAAAAAIBf2dnZMk1TpUuXDnYqsLDSpUvLNE1lZ2eXyOvTwAIAAAAAAAXikkHkp6T3DxpYAAAAAAAAsDQaWAAAAAAAAPBp5MiRql27drDToIEFAAAAAAD+vubMmSPDMPz+Wb9+fbBTLND27ds1adIk7dmzJ9iplBh+hRAAAAAAAPztTZkyRXXq1MkTr1+/fhCyKZrt27dr8uTJ6tq1qyVmS5WEYmlgnTp1Ss8884w2bNigjRs36vjx45o9e7ZGjhzpWcblcumdd97Rxx9/rMTERB07dkx16tTRjTfeqH/961+KiooqjlQAAAAAAEAALdsW7AykHk0v/DV69eqlNm3aXPgLoUQUyyWEKSkpmjJlinbs2KHmzZv7XObMmTMaNWqUjhw5onHjxmnGjBlq166dJk6cqF69esk0zeJIBQAAAAAAoFhNnDhRYWFhWrlypVd87NixioiI0JYtWyRJq1evlmEY+vDDD/XQQw+pSpUqKl26tPr37699+/bled0NGzaoZ8+eio2NValSpdSlSxetXbs2z3IHDhzQmDFjVK1aNUVGRqpOnTq67bbblJWVpTlz5mjw4MGSpG7dunkufVy9erXn+UuXLlWnTp1UunRplS1bVn369NEvv/ySZz2ffvqpmjZtqqioKDVt2lSffPLJhbxtxapYZmBVrVpVBw8eVJUqVbRp0ya1bds2zzIRERFau3atOnTo4In93//9n2rXrq2JEydq5cqVuvrqq4sjHQAAAAAAgCJJTU1VSkqKV8wwDMXFxemRRx7R4sWLNWbMGG3dulVly5bVV199pTfeeEOPP/54nsk8U6dOlWEYevDBB/Xnn39qxowZuvrqq7V582ZFR0dLkr7++mv16tVLrVu39jTIZs+ere7du2vNmjVq166dJCk5OVnt2rXTiRMnNHbsWDVu3FgHDhzQwoULdebMGXXu3Fnjx4/Xiy++qIceekhNmjSRJM9/3333XY0YMULXXnutnnrqKZ05c0avvPKKOnbsqMTERM8lh8uWLdPAgQN16aWXavr06Tp69KhGjRql+Pj4knzbC61YGliRkZGqUqVKvstERER4Na/crr/+ek2cOFE7duyggQUAAAAAAILCV08iMjJSGRkZCg8P1zvvvKPWrVvr3nvv1TPPPKMxY8aoTZs2+ve//53neceOHdOOHTtUtmxZSVKrVq10ww036I033tD48eNlmqbGjRunbt26aenSpTIMQ5J06623KiEhQY888oiWLVsmSZowYYIOHTqkDRs2eF3iOGXKFJmmqXLlyqlTp0568cUXdc0116hr166eZU6dOqXx48frlltu0euvv+6JjxgxQo0aNdK0adM88QcffFCVK1fWd999p9jYWElSly5d1KNHD9WqVesC390LF/SbuB86dEiSVKFChSBnAgAAAAAA/q7++9//qmHDhl4xm83m+f+mTZtq8uTJmjBhgn7++WelpKRo2bJlstvztlaGDx/uaV5J0qBBg1S1alUtWbJE48eP1+bNm/Xbb7/pkUce0dGjR72ee9VVV+ndd9+Vy+WSlHNZX79+/Xzen8vd+PJn+fLlOnHihG666Sav2WU2m03t27fXqlWrJEkHDx7U5s2b9e9//9vTvJKka665RpdeeqlOnz6d73oCIegNrKeffloxMTHq1auX32UyMzOVmZnp+XtaWpokyeFwyOFwSJLCwsIUFhYml8vl2ci5406n0+s+W/7iNptNhmF4Xjd3XJKcTmeh4na7XaZpesUNw5DNZsuTo784NVETNVETNVETNVETNVETNVETNVFTsGtyOBye1/N9/2pDUnDj53tbbcMwPDW1bdvW0yTKHc9d8/33368PPvhAGzdu1NSpU9WkSROZpulZ3r1s/fr1veLu2J49e2Sapn777TdJOTOh/Dlx4oSysrKUlpamhISEfO8dfm6u7v8mJSVJkrp37+7zeTExMZKkPXv2eOWd+z1o1KiRfvrppzxxf3nk7tXk3vfO3f+KKqgNrGnTpmnFihV6+eWXVa5cOb/LTZ8+XZMnT84TT0xMVOnSpSVJFStWVL169bR7924dOXLEs0x8fLzi4+OVlJSk1NRUT7xu3bqqVKmStm3bpvT0dE+8cePGKleunBITE70O4mbNmikiIkKbNm3yyqFNmzbKysrSzz//7InZbDa1bdtWqamp2rlzpyceHR2t5s2bKyUlRbt27fLEY2Nj1eSHH5QcHq794eGeeEWHQ/WysrQ7IkJHcnV047OzFZ+draTISKXm6gbXzcpSJYdD26KilB529v78jTMyVM7lUmJ0tJy5urPN0tMVYZraVKqUd03/+Efx1NSkiZKTk7V///6zNYX6dqImaqImaqImaqImaqImaqImavob1hQVFSUpp6mVkZHhiYeFhUkqJafT6dWgCAsLU3h4RJ64zWaT3R4uh8PhlYvdbpfNZld2drZXs84dz8rK8mqahIeHKyzM5omfPu3wvMdhYWF5ZgyVLl1aLpfL630xDMMTl6T09HSdPn1aYWFhKlWqlBwOh9dkGpvNpv3793uaT5s3b9bp06dlt9sVFRWlzMxMz3uTmZmp7OxsRUREKCMjQ06nU06nUy6XSw6Hw7POJ554Qs2aNZOUc+slm82mjIwMT/PrzJkznvXnV5M7T/f63dvJ/fdZs2apVq1acjgcys7O9rxGRESEJHm2UWZmZp6a3A3M06dPKyIiwqsmt8jISElSdna2tm07+7OUufc992Sk82WYxfzzf+6buM+ePVsjR470u9yHH36om266SaNHj9asWbPyfU1fM7Bq1Kiho0ePerqFVulMuxW52z53rlySXLleI+yvP/7iTnn3oP3FbcrpS5/b63S3vpznxocNK56aLPwvCNRETdRETdRETdRETdRETdRETdRUuJoyMjL0xx9/qG7dup5GRW7Lfwn+DKxrEnw8XAiGYWj27NkaPXq0Nm7c6HMGlpvL5VLnzp21a9cujRo1StOnT9fChQs1YMAAz/KrV69W9+7d9e9//1vTpk3zmpkVHx+vZs2aaenSpdq0aZPatWunV199VWPHjvXKJ/d6XS6Xypcvr27duuX7i4AfffSRBg8erK+//lrdunXzvMaCBQs0ZMgQffnll7r22mt9zpwyDEPJycmqXr26HnzwQU2fPt0rl6ZNm+r06dPavXu33/dGyund7Nq1SzVr1vQ0PHPve2lpaYqLi1Nqaqqnl1MUQZmBtXz5cg0fPlx9+vTRq6++WuDykZGRPg8Su92e51pT9wF7LvcBWNi4r2tYixo3DMNn3F+O7gZUYeO+M/cf97ex88T/mqVVLDUVMR4S24maqMlPjkWNUxM1SdTkL8eixqmJmiRq8pdjUePURE0SNfnLsajxi6Umu90u46/vie7/5hXcuN+0CiF3bbnrO7fW559/Xt9//70WLVqkPn366JtvvtHtt9+uLl26qEKFCl7Pf/fdd/XQQw+pbNmyMgxDCxcu1MGDB/Xggw/KMAy1bt1a9erV03/+8x/dfPPNKlOmjNd6jxw5oooVK8pms+kf//iH3nvvPf3444957oPlnqnlfr57Rp47j549eyomJkbTp09X9+7dFZ7rqi9JnvVUq1ZNLVq00DvvvKMJEyZ47oO1YsUKbd++XbVq1cr3vckd99Wr8RUrqoA3sDZs2KDrr79ebdq00fz58y+4AAAAAAAAgAu1dOlSr0s+3Tp06KDMzEw9+uijGjlypPr16ydJmjNnjlq0aKHbb79d8+fP93pO+fLl1bFjR40aNUqHDx/WjBkzVL9+ff3f//2fpJym5KxZs9SrVy8lJCRo1KhRql69ug4cOKBVq1YpJiZGixcvlpRz+6Vly5apS5cuGjt2rJo0aaKDBw9qwYIF+u6771SuXDm1aNFCNptNTz31lFJTUxUZGanu3burUqVKeuWVVzRs2DC1atVKN954oypWrKg//vhDX3zxha688kq99NJLknJu39SnTx917NhRo0eP1rFjxzRz5kwlJCTo1KlTJfnWF0pAu0c7duxQnz59VLt2bX3++eeKjo4O5OoBAAAAAAB8euyxx3zGZ82apddee00VKlTQjBkzPPEGDRpo+vTpuvvuuzV//nzdcMMNnsceeugh/fzzz5o+fbpOnjypq666Si+//LJK5boHddeuXbVu3To9/vjjeumll3Tq1ClVqVJF7du316233upZrnr16tqwYYMeffRRzZ07V2lpaapevbp69erleb0qVaro1Vdf1fTp0zVmzBg5nU6tWrVKlSpV0j//+U9Vq1ZNTz75pJ555hllZmaqevXq6tSpk0aNGuVZT8+ePbVgwQI98sgjmjBhgurVq6fZs2frs88+0+rVq4vpXT5/xXYPrJdeekknTpxQcnKyXnnlFQ0YMEAtW7aUJN11110KCwtTQkKCDhw4oGnTpql69epez69Xr56uuOKKQq0rLS1NsbGx533dpCW9806wMzhr+PBgZwAAAAAAsIiMjAzt3r1bderU8dzbCL6tXr1a3bp104IFCzRo0KBgpxNQBe0nF9rLKbYZWM8++6z27t3r+fvHH3+sjz/+WJI0dOhQSdK+ffskSf/+97/zPH/EiBGFbmABAAAAAADg76PYGlh79uwpcJli/sFDAAAAAAAA/A34+nE7AAAAAAAAwDL4CUAAAAAAAIBi0LVrV64+KyHMwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAH9bc+bMkWEYioqK0oEDB/I83rVrVzVt2jQImSE3e7ATAAAAAAAAIezLL4OdgdSz5wW/RGZmpp588knNnDmzGBJCcWMGFgAAAAAA+Ntr0aKF3njjDSUnJwc7FfhAAwsAAAAAAPztPfTQQ3I6nXryySfzXc7hcOjxxx9XvXr1FBkZqdq1a+uhhx5SZmamZ5l7771XcXFxMk3TE7vrrrtkGIZefPFFT+zw4cMyDEOvvPJK8Rd0kaGBBQAAAAAA/vbq1Kmj4cOHFzgL65ZbbtFjjz2mVq1a6fnnn1eXLl00ffp03XjjjZ5lOnXqpGPHjumXX37xxNasWaOwsDCtWbPGKyZJnTt3LoGKLi40sAAAAAAAACQ9/PDDcjgceuqpp3w+vmXLFr399tu65ZZbtGDBAt1+++16++239a9//UuffvqpVq1aJUnq2LGjpLMNqtTUVG3dulUDBw7M08AqX768Lr300hKuLPTRwAIAAAAAAJBUt25dDRs2TK+//roOHjyY5/ElS5ZIyrlEMLf77rtPkvTFF19IkipWrKjGjRvr22+/lSStXbtWNptN999/vw4fPqzffvtNUk4Dq2PHjjIMo8RquljQwAIAAAAAAPjLI488IofD4fNeWHv37lVYWJjq16/vFa9SpYrKlSunvXv3emKdOnXyzLZas2aN2rRpozZt2qh8+fJas2aN0tLStGXLFnXq1KlkC7pI0MACAAAAAAD4S926dTV06FC/s7AkFWrGVMeOHXXgwAHt2rVLa9asUadOnWQYhjp27Kg1a9bo+++/l8vlooFVSDSwAAAAAAAAcnHPwjr3Xli1atWSy+XyXALodvjwYZ04cUK1atXyxNyNqeXLl+uHH37w/L1z585as2aN1qxZo9KlS6t169YlXM3FgQYWAAAAAABALvXq1dPQoUP12muv6dChQ5547969JUkzZszwWv65556TJPXp08cTq1OnjqpXr67nn39e2dnZuvLKKyXlNLZ+//13LVy4UJdffrnsdnsJV3NxoIEFAAAAAABwjocffljZ2dn69ddfPbHmzZtrxIgRev311zVkyBC9/PLLGjlypJ5++mn94x//ULdu3bxeo1OnTvr111/VtGlTXXLJJZKkVq1aqXTp0kpKSuLywSKggQUAAAAAAHCO+vXra+jQoXnis2bN0uTJk/XDDz/onnvu0ddff60JEybogw8+yLOsu0HVsWNHT8xut+uKK67wehwFM0zTNIOdRFGlpaUpNjZWqampiomJCXY6xeOdd4KdwVnDhwc7AwAAAACARWRkZGj37t2qU6eOoqKigp0OLKqg/eRCeznMwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAKCGGYWjSpEnBTiPk0cACAAAAAAB/S4ZhFOrP6tWrg53q35492AkAAAAAAIAQ9r//BTsDqX7983rau+++6/X3d955R8uXL88Tb9KkyXmnhuJBAwsAAAAAAPwtDR061Ovv69ev1/Lly/PEEXxcQggAAAAAAODH6dOndd9996lGjRqKjIxUo0aN9Oyzz8o0Ta/lMjMz9f/+3/9TxYoVVbZsWfXv31/79+/P83p79+7V7bffrkaNGik6OlpxcXEaPHiw9uzZ41lm165dMgxDzz//fJ7nf//99zIMQ++//36x12plNLAAAAAAAAB8ME1T/fv31/PPP6+ePXvqueeeU6NGjXT//ffr3nvv9Vr2lltu0YwZM9SjRw89+eSTCg8PV58+ffK85g8//KDvv/9eN954o1588UWNGzdOK1euVNeuXXXmzBlJUt26dXXllVdq7ty5eZ4/d+5clS1bVtddd13JFG1RXEIIAAAAAADgw6JFi/T111/riSee0MMPPyxJuuOOOzR48GC98MILuvPOO1WvXj1t2bJF7733nm6//Xb997//9Sx388036+eff/Z6zT59+mjQoEFesX79+umKK67QRx99pGHDhkmShg8frltvvVU7d+5U48aNJUnZ2dmaP3++BgwYoFKlSpV0+ZbCDCwAAAAAAAAflixZIpvNpvHjx3vF77vvPpmmqaVLl3qWk5RnuXvuuSfPa0ZHR3v+Pzs7W0ePHlX9+vVVrlw5/fTTT57HbrjhBkVFRXnNwvrqq6+UkpLyt7xHFw0sAAAAAAAAH/bu3atq1aqpbNmyXnH3rxLu3bvX89+wsDDVq1fPa7lGjRrlec309HQ99thjnntqVahQQRUrVtSJEyeUmprqWa5cuXLq16+f5s2b54nNnTtX1atXV/fu3YutxlBBAwsAAAAAACBA7rrrLk2dOlU33HCD5s+fr2XLlmn58uWKi4uTy+XyWnb48OHatWuXvv/+e508eVKLFi3STTfdpLCwv187h3tgAQAAAAAA+FCrVi2tWLFCJ0+e9JqFtXPnTs/j7v+6XC79/vvvXrOufv311zyvuXDhQo0YMUL/+c9/PLGMjAydOHEiz7I9e/ZUxYoVNXfuXLVv315nzpzx3CPr7+bv17IDAAAAAAAohN69e8vpdOqll17yij///PMyDEO9evWSJM9/X3zxRa/lZsyYkec1bTabTNP0is2cOVNOpzPPsna7XTfddJPmz5+vOXPm6LLLLlOzZs0upKSQxQwsAAAAAAAAH/r166du3brp4Ycf1p49e9S8eXMtW7ZMn332me655x7PPa9atGihm266SS+//LJSU1PVoUMHrVy5Uv/73//yvGbfvn317rvvKjY2VpdeeqnWrVunFStWKC4uzmcOw4cP14svvqhVq1bpqaeeKtF6rYwGFgAAAAAAgA9hYWFatGiRHnvsMX344YeaPXu2ateurWeeeUb33Xef17JvvfWW53K/Tz/9VN27d9cXX3yhGjVqeC33wgsvyGazae7cucrIyNCVV16pFStW6Nprr/WZQ+vWrZWQkKAdO3bo5ptvLrFarc4wz523FgLS0tIUGxur1NRUxcTEBDud4vHOO8HO4Kzhw4OdAQAAAADAIjIyMrR7927VqVNHUVFRwU7nb6lly5YqX768Vq5cGexU/CpoP7nQXg73wAIAAAAAALCoTZs2afPmzRr+N59swiWEAAAAAAAAFrNt2zb9+OOP+s9//qOqVatqyJAhwU4pqJiBBQAAAAAAYDELFy7UqFGjlJ2drffff/9vf/kmDSwAAAAAAACLmTRpklwul3bs2KEuXboEO52go4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAApkmmawU4CFlfT+QQMLAAAAAAD4ZbPZJEnZ2dlBzgRW5t4/3PtLcaOBBQAAAAAA/AoPD1dkZKRSU1OZhQWfTNNUamqqIiMjFR4eXiLrsJfIqwIAAAAAgItGhQoVdODAAe3fv1+xsbEKDw+XYRjBTgtBZpqmsrOzlZqaqlOnTql69eolti4aWAAAAAAAIF8xMTGSpJSUFB04cCDI2cBqIiMjVb16dc9+UhJoYAEAAAAAgALFxMQoJiZG2dnZcjqdwU4HFmGz2UrsssHcaGABAAAAAIBCCw8PD0jDAsitWG7ifurUKU2cOFE9e/ZU+fLlZRiG5syZ43PZHTt2qGfPnipTpozKly+vYcOG6ciRI8WRBgAAAAAAAC5CxTIDKyUlRVOmTFHNmjXVvHlzrV692udy+/fvV+fOnRUbG6tp06bp1KlTevbZZ7V161Zt3LhRERERxZEOAAAAAAAALiLF0sCqWrWqDh48qCpVqmjTpk1q27atz+WmTZum06dP68cff1TNmjUlSe3atdM111yjOXPmaOzYscWRDgAAAAAAAC4ixXIJYWRkpKpUqVLgch999JH69u3raV5J0tVXX62GDRtq/vz5xZEKAAAAAAAALjLF0sAqjAMHDujPP/9UmzZt8jzWrl07JSYmBioVAAAAAAAAhJCA/QrhwYMHJeVcbniuqlWr6tixY8rMzFRkZGSexzMzM5WZmen5e1pamiTJ4XDI4XBIksLCwhQWFiaXyyWXy+VZ1h13Op0yTbPAuM1mk2EYntfNHZeU56dC/cXtdrtM0/SKG4Yhm82WJ0fDMGST5PrrjyfHv/74izslmYWI2yQZkrwryonrr+W94n+9Hxdck494yG8naqImaqImaqImaqImaqImaqImaqImaipyTefWVVQBa2Clp6dLks8GVVRUlGcZX49Pnz5dkydPzhNPTExU6dKlJUkVK1ZUvXr1tHv3bq9fNYyPj1d8fLySkpKUmprqidetW1eVKlXStm3bPLlJUuPGjVWuXDklJiZ6bexmzZopIiJCmzZt8sqhTZs2ysrK0s8//+yJ2Ww2tW3bVqmpqdq5c6cnHh0drebNmyslJUW7du3yxGNjY9VEUnJ4uPbn+inSig6H6mVlaXdEhI7Yz26q+OxsxWdnKykyUqk2mydeNytLlRwObYuKUnrY2cl1jTMyVM7lUmJ0tJyGcbam9HRFmKY2lSrlXZPTWTw1NWmi5ORk7d+//2xNob6dqImaqImaqImaqImaqImaqImaqImaqKnINbknI50vw8zdGisG7pu4z549WyNHjswTf+eddzRs2DCv5zzwwAN65plnlJGRUegZWDVq1NDRo0cVExMj6SLoeM6da50ZWH9tn1Dp4nrlfpF0pqmJmqiJmqiJmqiJmqiJmqiJmqiJmi6mmtLS0hQXF6fU1FRPL6coAjYDy33poPtSwtwOHjyo8uXL+2xeSTmztnw9ZrfbZbd7l+B+087l3rCFjZ/7uucTNwzDZ9xfju4GVGHjvjP3H/e3sfPE/5qlVSw1FTEeEtuJmqjJT45FjVMTNUnU5C/HosapiZokavKXY1Hj1ERNEjX5y7GocWqiJoma3Dn6y7+wAnYT9+rVq6tixYp5prxJ0saNG9WiRYtApQIAAAAAAIAQErAGliQNHDhQn3/+ufbt2+eJrVy5UklJSRo8eHAgUwEAAAAAAECIKLZLCF966SWdOHFCycnJkqTFixd7bgB21113KTY2Vg899JAWLFigbt266e6779apU6f0zDPP6LLLLtOoUaOKKxUAAAAAAABcRIrtJu61a9fW3r17fT62e/du1a5dW5L0yy+/6N5779V3332niIgI9enTR//5z39UuXLlQq8rLS1NsbGx533jL0t6551gZ3DW8OHBzgAAAAAAAFxELrSXU2wzsPbs2VOo5RISEvTVV18V12oBAAAAAABwkQvoPbAAAAAAAACAoqKBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsLeAPrt99+04033qj4+HiVKlVKjRs31pQpU3TmzJlApwIAAAAAAIAQYA/kyvbt26d27dopNjZWd955p8qXL69169Zp4sSJ+vHHH/XZZ58FMh0AAAAAAACEgIA2sN59912dOHFC3333nRISEiRJY8eOlcvl0jvvvKPjx4/rkksuCWRKAAAAAAAAsLiAXkKYlpYmSapcubJXvGrVqgoLC1NEREQg0wEAAAAAAEAICGgDq2vXrpKkMWPGaPPmzdq3b58+/PBDvfLKKxo/frxKly4dyHQAAAAAAAAQAgJ6CWHPnj31+OOPa9q0aVq0aJEn/vDDD+uJJ57w+7zMzExlZmZ6/u6eyeVwOORwOCRJYWFhCgsLk8vlksvl8izrjjudTpmmWWDcZrPJMAzP6+aOS5LT6SxU3G63yzRNr7hhGLLZbHlyNAxDNkmuv/54cvzrj7+4U5JZiLhNkiHJu6KcuP5a3iv+1/txwTX5iIf8dqImaqImaqImaqImaqImaqImaqImaqKmItd0bl1FFdAGliTVrl1bnTt31sCBAxUXF6cvvvhC06ZNU5UqVXTnnXf6fM706dM1efLkPPHExETPrK2KFSuqXr162r17t44cOeJZJj4+XvHx8UpKSlJqaqonXrduXVWqVEnbtm1Tenq6J964cWOVK1dOiYmJXhu7WbNmioiI0KZNm7xyaNOmjbKysvTzzz97YjabTW3btlVqaqp27tzpiUdHR6t58+ZKSUnRrl27PPHY2Fg1kZQcHq794eGeeEWHQ/WysrQ7IkJH7Gc3VXx2tuKzs5UUGalUm80Tr5uVpUoOh7ZFRSk97OzkusYZGSrncikxOlpOwzhbU3q6IkxTm0qV8q7J6Syempo0UXJysvbv33+2plDfTtRETdRETdRETdRETdRETdRETdRETdRU5Jrck5HOl2Hmbo2VsA8++ECjR49WUlKS4uPjPfFRo0Zp/vz5+uOPPxQXF5fneb5mYNWoUUNHjx5VTEyMpIug4zl3rnVmYA0bVjw10ZmmJmqiJmqiJmqiJmqiJmqiJmqiJmqiJodDaWlpiouLU2pqqqeXUxQBbWB17txZTqdTa9eu9Yp/8sknGjBggJYvX66rr766wNdJS0tTbGzseRdtSe+8E+wMzho+PNgZAAAAAACAi8iF9nICehP3w4cP5+kMSlJ2drYkXfD1kAAAAAAAALj4BLSB1bBhQyUmJiopKckr/v777yssLEzNmjULZDoAAAAAAAAIAQG9ifv999+vpUuXqlOnTrrzzjsVFxenzz//XEuXLtUtt9yiatWqBTIdAAAAAAAAhICANrA6d+6s77//XpMmTdLLL7+so0ePqk6dOpo6daoeeOCBQKYCAAAAAACAEBHQBpYktWvXTkuWLAn0agEAAAAAABCiAnoPLAAAAAAAAKCoaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0mhgAQAAAAAAwNLswU4AAAAAQMGWbQt2Bmf1aBrsDAAAfzc0sAAAAAAUOxpuAIDixCWEAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDR7sBMAAAAAgmXZtmBncFaPpsHO4O+L/QAArC8oM7B++ukn9e/fX+XLl1epUqXUtGlTvfjii8FIBQAAAAAAABYX8BlYy5YtU79+/dSyZUs9+uijKlOmjH7//Xft378/0KkAAAAAAAAgBAS0gZWWlqbhw4erT58+WrhwocLCuAUXAAAAAAAA8hfQDtK8efN0+PBhTZ06VWFhYTp9+rRcLlcgUwAAAAAAAECICWgDa8WKFYqJidGBAwfUqFEjlSlTRjExMbrtttuUkZERyFQAAAAAAAAQIgJ6CeFvv/0mh8Oh6667TmPGjNH06dO1evVqzZw5UydOnND777/v83mZmZnKzMz0/D0tLU2S5HA45HA4JElhYWEKCwuTy+XymtXljjudTpmmWWDcZrPJMAzP6+aOS5LT6SxU3G63yzRNr7hhGLLZbHlyNAxDNkmuv/54cvzrj7+4U5JZiLhNkiHJu6KcuP5a3iv+1/txwTX5iIf8dqImaqImaqImaqKmi6omM/eHLOOvT0fmOZ+O/MSNsJyavOOGjDCbTNOlc17cd9wIk2GEyTRdcjjyr8l05Vredc4nPiOnJtN1zie+EqrJ4Sh4O/mtNU/ugakpv33vbJoFb6eSrin3oRZqx1NuF8s5gpqoiZqKr6Zz6yqqgDawTp06pTNnzmjcuHGeXx0cMGCAsrKy9Nprr2nKlClq0KBBnudNnz5dkydPzhNPTExU6dKlJUkVK1ZUvXr1tHv3bh05csSzTHx8vOLj45WUlKTU1FRPvG7duqpUqZK2bdum9PR0T7xx48YqV66cEhMTvTZ2s2bNFBERoU2bNnnl0KZNG2VlZennn3/2xGw2m9q2bavU1FTt3LnTE4+Ojlbz5s2VkpKiXbt2eeKxsbFqIik5PFz7w8M98YoOh+plZWl3RISO2M9uqvjsbMVnZyspMlKpNpsnXjcrS5UcDm2LilJ6rvuLNc7IUDmXS4nR0XIaxtma0tMVYZraVKqUd01OZ/HU1KSJkpOTvW7QH/LbiZqoiZqoiZqoiZouqpqyTpytKbxCMxm2CGUd9q4ponIbmc4sZaecrckwbIqo0lZmVqqyj52tybBHK6Jic7nSU+RIPVtTWGSswss3kfNUspynztZki64oe7l6cqbu1qZN+deUdVKyx9aVrVQlZR/dJtNxtqbw8o1lRJZT9p+JMs2Sr2nTmYK3kzN1t5zpZ2uylYmXvWy8HCeS5Mo8u50CUVNB+17WycJvp5KuadOZszWF2vF0MZ4jqImaqKn4anJPRjpfhpm7NVbCmjZtql9++UXffPONOnfu7Il/++236tKli95++20NHz48z/N8zcCqUaOGjh49qpiYGEkXQcdz7lzrzMAaNqx4aqIzTU3URE3URE3URE0Wr2nl9lxJBnkG1lVN8q9p5fZcywd5BtZVlxa8nb7aap0ZWNck5L/vnd0Pgj8D66pLz4ZD7XjK7WI5R1ATNVFT8dWUlpamuLg4paameno5RRHQGVjVqlXTL7/8osqVK3vFK1WqJEk6fvy4z+dFRkYqMjIyT9xut8tu9y7B/aady71hCxs/93XPJ24Yhs+4vxzdDajCxn1n7j/ub2Pnif81S6tYaipiPCS2EzVRk58cixqnJmqSqMlfjkWNUxM1SedXk+HrQ5bh51OTj7hhGH7iYfL14vnF7fb8a8r9NCPMd01GWOFz9xcvTE25N6O/7eG3Vr+5l2xN+e1756ZZ5O1XjDX5OqRC5Xi60Dg1UZNETf5yLGrcijX5y7+wAnoT99atW0uSDhw44BVPTk6WlDNFDQAAAAAAAMgtoA2sG264QZL05ptvesVnzZolu92url27BjIdAAAAAAAAhICAXkLYsmVLjR49Wm+99ZYcDoe6dOmi1atXa8GCBZowYYKqVasWyHQAAAAAAAAQAgLawJKkV199VTVr1tTs2bP1ySefqFatWnr++ed1zz33BDoVAAAAAAAAhICAN7DCw8M1ceJETZw4MdCrBgAAAAAAQAgK6D2wAAAAAAAAgKKigQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsL+E3cAQAAAADnb9m2YGdwVo+mwc4AwN8FM7AAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBp9mAnAAAAgIvHsm3BzuCsHk2DnQEAACguzMACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXxK4QAAAAAgBLBL5MCKC7MwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXRwAIAAAAAAICl0cACAAAAAACApdHAAgAAAAAAgKXZg50AAAAAAABWsGxbsDM4q0fTYGcAWAszsAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBp3MQdAAAAAIAQww3n8XfDDCwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBq/QggAAAAAAEoUv5qIC8UMLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYmj3YCQAAACB/y7YFO4OzejQNdgYAAODviAYWAAAAAADAX/iHI2viEkIAAAAAAABYGg0sAAAAAAAAWBoNLAAAAAAAAFgaDSwAAAAAAABYGg0sAAAAAAAAWBq/QmgRv6cEO4Oz6gU7AQAAAAAAgFyYgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEujgQUAAAAAAABLo4EFAAAAAAAAS6OBBQAAAAAAAEsLegNr6tSpMgxDTZs2DXYqAAAAAAAAsKCgNrD279+vadOmqXTp0sFMAwAAAAAAABZmD+bK//Wvf+nyyy+X0+lUSkpKMFMBAAAAAACARQVtBta3336rhQsXasaMGcFKAQAAAAAAACEgKA0sp9Opu+66S7fccosuu+yyYKQAAAAAAACAEBGUSwhfffVV7d27VytWrCjU8pmZmcrMzPT8PS0tTZLkcDjkcDgkSWFhYQoLC5PL5ZLL5fIs6447nU6Zpllg3GazyTAMz+vmjks5zbfCxO12u0zT9IobhiGbzZYnR8MwJEmmJNPI9SJmTofRJUm54oaZ81dX7mXPM65z1yl53o8LrclXPNS3EzVREzVREzVRUzBqMv/6MGCE2WSaLnfAXZXvuBEmwwjzH3c5lfPpo6B4Tk2mK6cmd2n+cjdN21//4x03wnJq8o6XbE0uV8HbyXu1vnP3Fy/umhyO/Pc90+W/1nO3U0nX5HAUfDwV9753oTXld444m2Zgjydfuec+ffg7zqTAH0/+4qaZ/3kvZ3nftXqFA3COKMy5POc4C+zx5C/ucOQ/PknBO57OrUkqeMz1lBvA48lfPPfu6utzhOmyxpgr5ewHF8tno3PPE0UV8AbW0aNH9dhjj+nRRx9VxYoVC/Wc6dOna/LkyXniiYmJnhvAV6xYUfXq1dPu3bt15MgRzzLx8fGKj49XUlKSUlNTPfG6deuqUqVK2rZtm9LT0z3xxo0bq1y5ckpMTPTa2M2aNVNERIQ2bdrklUObNm2UlZWln3/+2ROz2Wxq27atUlNTtXPnTk88OjpazZs3V0pKinbt2uWJx8bGKkJSaplwpZYJ98TLpDsUl5ql47EROhV9dlPFnspWuVPZOlIuUhmRNk+8fGqWyqY7dCguStn2s5PrKh3LUHSWS/srRcs0znarqqaky+40ta9yKa+a6jidxVJTkyZNlJycrP3793viob6dqImaqImaqImaglFT1knJsEcromJzudJT5Eg9W1NYZKzCyzeR81SynKfO1mSLrih7uXpypu6WM/1sTbYy8bKXjZfjRJJcmWdrssfWla1UJWUf3SbTcbam8PKNZUSWU/afiTJNpzadyb8mlWoj05ml7JSzNRmGTRFV2srMSlX2sbPbqaRrSqlS8HbKOnF2O4VXaCbDFqGsw941RVQOTE2bNuW/72WdLPx2KumaNp0p+Hgq7n3vQmoq6ByRdbLw26mka3IfY5L/c4SiA388+asptWb+571gHU++airMuTzrZOCPJ381bTqT//gkBed48lWTVPCY6z7OAnk8+avJfZz5+xyRnW6NMVfK2Q8uls9G7slI58swc7fGAuC2227TihUr9MsvvygiIkKS1LVrV6WkpGjbtm0+n+NrBlaNGjV09OhRxcTESLL+v5xK+Xc897ww1zIzsOrfM6xYagrFf+GmJmqiJmqiJmqyYk0rt0tWmYF11aX5575yh3VmYF3TtODtlPPenq3VV+6BmjFyVZP8972V2/3XGugZI1ddWvDx9NVW68zAuiYh/3PE2f0g+DOw3MeY5P84+3qndWZg9bgs//Pesq3WmYF1VZOCz+U5x5k1ZmBddWn+49OK7daZgXVts4LHXM9xZoEZWLmPM1+fI1Zut8aYK+XsBxfLZ6O0tDTFxcUpNTXV08spioDOwPrtt9/0+uuva8aMGUpOTvbEMzIylJ2drT179igmJkbly5f3el5kZKQiIyPzvJ7dbpfd7l2C+007l3vDFjZ+7uueT9wwDJ9xfzkaOttU8lpe8tqnPXE/rceixs9dp/uSxuKoqajxUNhO1ERN/nIsapyaqEmiJn85FjV+sddkhOWOh3kHzjce5jt3/3H7X7nmn7tnsrfhuybf8ZKpyb0p89tOPl7GZ47+4sVZk92e/77ntR8UsJ3yPlC8NeXe7H4/2xbzvpf3gaLVlN854tw0A3U85X3AnucYk/yfIwJ5PPmLu495f+e3omy/kq6pMOdy7+MsMMeTv3ihjrMgHU++4gWNrYU+zgJQ07m767nnCHdawR5zJe/9INQ/G/nLv7ACehP3AwcOyOVyafz48apTp47nz4YNG5SUlKQ6depoypQpgUwJAAAAAAAAFhfQGVhNmzbVJ598kif+yCOP6OTJk3rhhRdUr169QKYEAAAAAAAAiwtoA6tChQr6xz/+kSc+Y8YMSfL5GAAAAAAAAP7eAnoJIQAAAAAAAFBUAZ2B5c/q1auDnQIAAAAAAAAsihlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNEvcAwuhZdm2YGdwVo+mwc4AAAAAAACUNGZgAQAAAAAAwNJoYAEAAAAAAMDSaGABAAAAAADA0rgHFgAA+Nvhfo4AAAChhRlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDR7sBMAStqybcHO4KweTYOdAQAAAAAAoYcZWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNH6FEAAAFAt+9RUAAAAlhRlYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNBpYAAAAAAAAsDQaWAAAAAAAALA0GlgAAAAAAACwNHuwEwBw1rJtwc7grB5Ng50BAAAAAAA5mIEFAAAAAAAAS2MGFgAAFsWsTAAAACAHM7AAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaTSwAAAAAAAAYGk0sAAAAAAAAGBpNLAAAAAAAABgaQFtYP3www+68847lZCQoNKlS6tmzZq64YYblJSUFMg0AAAAAAAAEELsgVzZU089pbVr12rw4MFq1qyZDh06pJdeekmtWrXS+vXr1bRp00CmAwAAAAAAgBAQ0AbWvffeq3nz5ikiIsITGzJkiC677DI9+eSTeu+99wKZDgAAAAAAAEJAQBtYHTp0yBNr0KCBEhIStGPHjkCmAgAAAAAAgBAR9Ju4m6apw4cPq0KFCsFOBQAAAAAAABYU0BlYvsydO1cHDhzQlClT/C6TmZmpzMxMz9/T0tIkSQ6HQw6HQ5IUFhamsLAwuVwuuVwuz7LuuNPplGmaBcZtNpsMw/C8bu64JDmdzkLF7Xa7TNP0ihuGIZvNlidHwzAkSaYk08j1ImZOh9ElSbnihpnzV1fuZc8zrnPXKXneD381ma7ccUNGmE2m6ZJMV8FxI0yGEeY/7nL+9U4UFC/8djJdOcvn/MW7JiMspybveMnV5HDkv+9JhkyXd03+ci/pmqTQPZ58xUP9HEFNf9OaXHnPe8E6RzgcBddkmud3Li+JmpzO/LdTSY9PRanJNAve98y/PgwEc8x11+Q+rPwdN6ZpjTFXklyugs8R3qsNzpjrrsnXcZY795zPNIE/nnzl7nAUfN4LxvGUX035ncvPphnY48lX7rmHLn/HmRT448lf3DTzH3O9vzsoYMeTr3hhPke4vzsEc8zNfZzl9zlCssaYm/Nts+DPRp5ygzjmuuO5d1dfn/dMlzXGXClnPwi5z7B+xtxzzxNFFdQG1s6dO3XHHXfoiiuu0IgRI/wuN336dE2ePDlPPDExUaVLl5YkVaxYUfXq1dPu3bt15MgRzzLx8fGKj49XUlKSUlNTPfG6deuqUqVK2rZtm9LT0z3xxo0bq1y5ckpMTPTa2M2aNVNERIQ2bdrklUObNm2UlZWln3/+2ROz2Wxq27atUlNTtXPnTk88OjpazZs3V0pKinbt2uWJx8bGKkJSaplwpZYJ98TLpDsUl5ql47EROhV9dlPFnspWuVPZOlIuUhmRNk+8fGqWyqY7dCguStn2s5PrKh3LUHSWS/srRcs0znarqqaky+40ta9yKa+a6jid+daUdfhsTYY9WhEVm8uVniJH6tmawiJjFV6+iZynkuU8tf/s60RXlL1cPTlTd8uZfnY72crEy142Xo4TSXJlnt1O9ti6spWqpOyj22Q6zm6n8PKNZUQWbjtlnZQiKreR6cxSdsrZmgzDpogqbWVmpSr7WGBq2nQm/31PKqfsPxNl5jrZhldoJsMWoazD3vteSdckhe7x1KRJEyUnJ2v//rM1hfo5gpr+njVl/Zn3vBesc8SmTQXX5DTP71xeEjVtM/PfTiU9PhWlpvT0gve9rJPBH3PdNW06kxP3dzyplDXGXElKqVLwOSLrRPDHXHdNmzblf47IOhmc48lXTZvOFHzeC8bx5K+mgs7lWScLv51Kuib3MSb5H58UHfjjyV9NqTXzH3ODdTz5qqkwnyOyTgZ/zHXXtOlM/p8jJGuMuYY9WlLBn43cx1kwx1x3Te7jzN/nvex0a4y5Us5+EGqfYf2Nue7JSOfLMHO3xgLo0KFDuvLKK5Wdna3169erWrVqfpf1NQOrRo0aOnr0qGJiYiSF/r/a73lhrmVmYNW/Z1i+NS3bGvx/6XF3prs3Lng7rdyuoP5LT+7cr7o0/31v+S/B/5ced+7XXha6xxMze6gpv5qWbVPQZlf4Os7yq2nFL9aZgXVVk4K308od1pmBdXVC/vveV1utMwOrR9OCj6eV26Vgj7numq66NCfs71ywcoc1xlxJuqZpweeInPf2bK2+cg/UOcLXcZY795zPNNaYgXXVpQWfy/0eZ0E4R1yTkP/4dHY/CP4MLPcxJvk/zr7eaZ0ZWD0uy/9zhPd3BwXsePIVv6pJwZ8j3N8drDADK/d3B1/H2Yrt1hhzJUPXNiv4857nOLPADKzcx5mvz7Art1tjzJVy9oOL5XN5Wlqa4uLilJqa6unlFEVQZmClpqaqV69eOnHihNasWZNv80qSIiMjFRkZmSdut9tlt3uX4H7TzuXesIWNn/u65xM3DMNn3F+Ohs42lbyWl7z2aU/cT+uxqPFz1+m+pNFfTUaYr3iYZPioqajxMN/bw1+8MNvDazWG75p8x4u/ptzp+tv3fL2/OQ8UPl5cNRV0PC3blucR3zn6PdUUJW74iedMn+7R9Jyon9xD+RxBTcVTk2EoKMeTv3h+NflYPGjnCLu94O3knuRb1HN5SdTkflv9jrklPD4VpSbDKPh4yp1SsMZcd03npnpu7p7J3kEecyXJvenzO0f4Os6CdY7wdZzlzt1rPwjg8ZQ7R3cSuTd7kY+zIJ0j8hufzk0zmOcIX8Ouv3NEII8nf3H3Me/v80LRzofBG3PP5pvrdYL8ubxQx5kFxtyCcizycRaAms7dXc89R7jTCvaYK3nvB6H+udxf/oUV8AZWRkaG+vXrp6SkJK1YsUKXXnppwU8CAAAAAADA31ZAG1hOp1NDhgzRunXr9Nlnn+mKK64I5OoBAAAAAAAQggLawLrvvvu0aNEi9evXT8eOHdN7773n9fjQoUMDmQ4AAAAAAABCQEAbWJs3b5YkLV68WIsXL87zOA0sAAAAAAAAnCugDazVq1cHcnUAAAAAAAC4CPj63RUAAAAAAADAMmhgAQAAAAAAwNJoYAEAAAAAAMDSAnoPLADAxWfZtmBncFaPpsHOAAAAAEBJYAYWAAAAAAAALI0ZWAD+FpglBAAAAAChixlYAAAAAAAAsDRmYAGABTFjDAAAAADOYgYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACyNBhYAAAAAAAAsjQYWAAAAAAAALI0GFgAAAAAAACwt4A2szMxMPfjgg6pWrZqio6PVvn17LV++PNBpAAAAAAAAIEQEvIE1cuRIPffcc7r55pv1wgsvyGazqXfv3vruu+8CnQoAAAAAAABCgD2QK9u4caM++OADPfPMM/rXv/4lSRo+fLiaNm2qBx54QN9//30g0wEAAAAAAEAICOgMrIULF8pms2ns2LGeWFRUlMaMGaN169Zp3759gUwHAAAAAAAAISCgDazExEQ1bNhQMTExXvF27dpJkjZv3hzIdAAAAAAAABACAnoJ4cGDB1W1atU8cXcsOTnZ5/MyMzOVmZnp+Xtqaqok6dixY3I4HJKksLAwhYWFyeVyyeVyeZZ1x51Op0zTLDBus9lkGIbndXPHJcnpdBYqbrfbZZqmV9wwDNlstjw5GoahkxnpMiXJyPUiZs5f/cZzx84zrnNfW2ffX381nUrLHTdkhNlkmi7JdBUcN8JkGGH+4y5nrsTyi+dsp2PHCt5Op9Jyls+p2bsmIyynJu94ydV07Fj++97pU4ZMl3dN/nIv6ZrS0go+nk6l+a/VnaNhBKamY8f+ivo5zk6dLN5970JqOnas4HPEqbTAH0/+ajp2LP/znns/CPTx5Cvu3g/yO5efOqmAH0/+akpLy398OpUWnOPJV/zYsbznAr/HWQCPJ381HT/uf8zN2Q+Cczz5qik1teDPETnHWXDHXHdNuY8zKW/up05aY8yVpBMnCv685xnL/qrVV+6BOkf4Os5y557zmSb4Y66Usx/4G3Pdufs9zoJwjkhNzf9z+dn9ILhjrkyn5xiT/B9np08Ff8x1S03N//uT93cHBex48hU/frzg74Tu7w7BHHNzH2f5fc89fcoaY65kKC3N/5ib5zgL4pjrjuc+znx9Lj+VZo0xV8rZD0q6H5Hfubw4eyxpaTk7Qe7HiyKgDaz09HRFRkbmiUdFRXke92X69OmaPHlynnidOnWKN0HkeGhcsDMAAAAAAAAXoZMnTyo2NrbIzwtoAys6OtprJpVbRkaG53FfJkyYoHvvvdfzd5fLpWPHjikuLk6Gce60or+ntLQ01ahRQ/v27ctziaYVhVK+oZSrFFr5hlKuUmjlG0q5SqGVbyjlKoVWvqGUqxRa+YZSrlJo5RtKuUqhlW8o5SqFVr6hlKsUWvmGUq5SaOUbSrlKoZdvIJimqZMnT6patWrn9fyANrCqVq2qAwcO5IkfPHhQkvwWERkZmWfmVrly5Yo9v4tBTExMSB0coZRvKOUqhVa+oZSrFFr5hlKuUmjlG0q5SqGVbyjlKoVWvqGUqxRa+YZSrlJo5RtKuUqhlW8o5SqFVr6hlKsUWvmGUq5S6OVb0s5n5pVbQG/i3qJFCyUlJXmue3TbsGGD53EAAAAAAAAgt4A2sAYNGiSn06nXX3/dE8vMzNTs2bPVvn171ahRI5DpAAAAAAAAIAQE9BLC9u3ba/DgwZowYYL+/PNP1a9fX2+//bb27NmjN998M5CpXHQiIyM1ceJEnzfJt6JQyjeUcpVCK99QylUKrXxDKVcptPINpVyl0Mo3lHKVQivfUMpVCq18QylXKbTyDaVcpdDKN5RylUIr31DKVQqtfEMpVyn08g0Fhnm+v194njIyMvToo4/qvffe0/Hjx9WsWTM9/vjjuvbaawOZBgAAAAAAAEJEwBtYAAAAAAAAQFEE9B5YAAAAAAAAQFHRwAIAAAAAAICl0cACAAAAAACApdHACnGZmZl68MEHVa1aNUVHR6t9+/Zavnx5sNPy6dSpU5o4caJ69uyp8uXLyzAMzZkzJ9hp+fTDDz/ozjvvVEJCgkqXLq2aNWvqhhtuUFJSUrBT8+mXX37R4MGDVbduXZUqVUoVKlRQ586dtXjx4mCnVihTp06VYRhq2rRpsFPJY/Xq1TIMw+ef9evXBzs9n3766Sf1799f5cuXV6lSpdS0aVO9+OKLwU4rj5EjR/p9bw3D0IEDB4KdopfffvtNN954o+Lj41WqVCk1btxYU6ZM0ZkzZ4Kdmk8//vijevbsqZiYGJUtW1Y9evTQ5s2bg51WkcaCHTt2qGfPnipTpozKly+vYcOG6ciRI5bLdePGjbr99tvVunVrhYeHyzCMgOWYW2HydblcmjNnjvr3768aNWqodOnSatq0qZ544gllZGRYKldJeuONN9SlSxdVrlxZkZGRqlOnjkaNGqU9e/YELNei5Jtbdna2Lr30UhmGoWeffTYwiarwufo7Bzdu3DhguRYlXyln/33llVfUokULRUdHKy4uTt27d9eWLVsslWt+Y9s111wTkFyLkq8kzZ8/X5dffrnKlSunuLg4denSRV988YUlc33ppZfUpEkTRUZGqnr16rr33nt1+vTpgOValO8</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -114,12 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,80 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45687</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>9.16309809196412</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45687</v>
-      </c>
-      <c r="H2">
-        <v>4.348516376332625</v>
-      </c>
-      <c r="I2">
-        <v>-0.6612457159234781</v>
-      </c>
-      <c r="J2">
-        <v>9.16309809196412</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
